--- a/Factors.xlsx
+++ b/Factors.xlsx
@@ -487,12 +487,8 @@
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="n">
-        <v>0.01601819214645264</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-0.01307922465662781</v>
-      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -504,12 +500,8 @@
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="n">
-        <v>0.02476616286140972</v>
-      </c>
-      <c r="F4" t="n">
-        <v>-0.05441911175956125</v>
-      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -521,12 +513,8 @@
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="n">
-        <v>0.01394135865970529</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-0.0331117648999572</v>
-      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -537,16 +525,16 @@
         <v>138005</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.04537455338016307</v>
+        <v>0.02789107643186458</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1370805100298139</v>
+        <v>0.002418676078958952</v>
       </c>
       <c r="E6" t="n">
-        <v>0.07695500363193102</v>
+        <v>0.01114268392833562</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1370805100298139</v>
+        <v>-0.002418676078958952</v>
       </c>
       <c r="G6" t="inlineStr"/>
     </row>
@@ -558,16 +546,16 @@
         <v>138006</v>
       </c>
       <c r="C7" t="n">
-        <v>0.008944930852109465</v>
+        <v>-0.01294661133660565</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.006887992222542787</v>
+        <v>-0.00427650181624142</v>
       </c>
       <c r="E7" t="n">
-        <v>0.001420059921477538</v>
+        <v>-0.0005349833768691142</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.01070298498744089</v>
+        <v>0.00427650181624142</v>
       </c>
       <c r="G7" t="inlineStr"/>
     </row>
@@ -579,16 +567,16 @@
         <v>138007</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.02335116000312834</v>
+        <v>0.01711873874162938</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.01294283279232526</v>
+        <v>0.01956209480716074</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.004565259316550407</v>
+        <v>0.01045062226900897</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002611667820668166</v>
+        <v>-0.01956209480716074</v>
       </c>
       <c r="G8" t="inlineStr"/>
     </row>
@@ -600,16 +588,16 @@
         <v>138008</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01601282303053736</v>
+        <v>0.01825127672670367</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02141738645212566</v>
+        <v>0.02646864253422326</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02419164589100445</v>
+        <v>0.01672607351382072</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.05581686367643892</v>
+        <v>-0.02646864253422326</v>
       </c>
       <c r="G9" t="inlineStr"/>
     </row>
@@ -621,16 +609,16 @@
         <v>138009</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.006866891558476096</v>
+        <v>-0.04087850804813146</v>
       </c>
       <c r="D10" t="n">
-        <v>0.008650627389840227</v>
+        <v>-0.005229337592221845</v>
       </c>
       <c r="E10" t="n">
-        <v>0.005571875863830386</v>
+        <v>-0.01446276117482446</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.03591034770397436</v>
+        <v>0.005229337592221845</v>
       </c>
       <c r="G10" t="inlineStr"/>
     </row>
@@ -642,16 +630,16 @@
         <v>138010</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.03446384372479376</v>
+        <v>0.001935628324474971</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.004432203960378907</v>
+        <v>-0.04362250688175857</v>
       </c>
       <c r="E11" t="n">
-        <v>0.02280271275809283</v>
+        <v>-0.03293352234482988</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.05568008251774616</v>
+        <v>0.04362250688175857</v>
       </c>
       <c r="G11" t="inlineStr"/>
     </row>
@@ -663,16 +651,16 @@
         <v>138011</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01590949919715616</v>
+        <v>0.02434243896333651</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.02981161986335887</v>
+        <v>0.02729028722485911</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.02626733875979558</v>
+        <v>0.01530613181849588</v>
       </c>
       <c r="F12" t="n">
-        <v>0.03746436914879233</v>
+        <v>-0.02729028722485911</v>
       </c>
       <c r="G12" t="inlineStr"/>
     </row>
@@ -684,16 +672,16 @@
         <v>138012</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.008085957091996034</v>
+        <v>-0.03913995444989565</v>
       </c>
       <c r="D13" t="n">
-        <v>0.002336814141811576</v>
+        <v>0.01161585828026506</v>
       </c>
       <c r="E13" t="n">
-        <v>0.02601436134866145</v>
+        <v>0.01310896667598788</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.05493433870040303</v>
+        <v>-0.01161585828026506</v>
       </c>
       <c r="G13" t="inlineStr"/>
     </row>
@@ -705,16 +693,16 @@
         <v>138101</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.04351402656470318</v>
+        <v>0.002735258783527969</v>
       </c>
       <c r="D14" t="n">
-        <v>0.02273184404161506</v>
+        <v>0.06862831074745622</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01751681085379237</v>
+        <v>0.05756789849984714</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.03141640169271924</v>
+        <v>-0.06862831074745622</v>
       </c>
       <c r="G14" t="n">
         <v>0.07206941759554952</v>
@@ -728,16 +716,16 @@
         <v>138102</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02423383958480878</v>
+        <v>-0.006914719367611011</v>
       </c>
       <c r="D15" t="n">
-        <v>0.07231119394003099</v>
+        <v>0.05961210111191961</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0744214841176163</v>
+        <v>0.02743560172667572</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1111446551457756</v>
+        <v>-0.05961210111191961</v>
       </c>
       <c r="G15" t="n">
         <v>0.0697847137243832</v>
@@ -751,16 +739,16 @@
         <v>138103</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01345965063373397</v>
+        <v>-0.09455055419256404</v>
       </c>
       <c r="D16" t="n">
-        <v>0.04093752666754648</v>
+        <v>0.03155710064825913</v>
       </c>
       <c r="E16" t="n">
-        <v>0.04560928438652379</v>
+        <v>-0.01553408645618175</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.1046116565488933</v>
+        <v>-0.03155710064825913</v>
       </c>
       <c r="G16" t="n">
         <v>0.06744335914377779</v>
@@ -774,16 +762,16 @@
         <v>138104</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.09813576281588988</v>
+        <v>0.03106250848822021</v>
       </c>
       <c r="D17" t="n">
-        <v>0.02519164952401082</v>
+        <v>0.0148522263563555</v>
       </c>
       <c r="E17" t="n">
-        <v>0.03709831411722619</v>
+        <v>0.01356283610467249</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.09642941996572925</v>
+        <v>-0.0148522263563555</v>
       </c>
       <c r="G17" t="n">
         <v>-0.001510545857309378</v>
@@ -797,16 +785,16 @@
         <v>138105</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.003232543699762072</v>
+        <v>0.002743378369679321</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1386853437706218</v>
+        <v>-0.009102745252031383</v>
       </c>
       <c r="E18" t="n">
-        <v>0.04879922440812903</v>
+        <v>0.009058764904559475</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1386853437706218</v>
+        <v>0.009102745252031383</v>
       </c>
       <c r="G18" t="n">
         <v>-0.04033980546887397</v>
@@ -820,16 +808,16 @@
         <v>138106</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.009568520220539537</v>
+        <v>0.026330430153342</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.01729426710270312</v>
+        <v>-0.02982711943976788</v>
       </c>
       <c r="E19" t="n">
-        <v>0.01746843830214763</v>
+        <v>-0.007408140499196155</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.02339272435233639</v>
+        <v>0.02982711943976788</v>
       </c>
       <c r="G19" t="n">
         <v>-0.02917111414733736</v>
@@ -843,16 +831,16 @@
         <v>138107</v>
       </c>
       <c r="C20" t="n">
-        <v>0.07414165860548398</v>
+        <v>-0.02502094538630627</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.01693823444590552</v>
+        <v>0.009179911813906594</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0421285575107619</v>
+        <v>0.0161636309096367</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.03734371823335388</v>
+        <v>-0.009179911813906594</v>
       </c>
       <c r="G20" t="n">
         <v>0.0241790707186645</v>
@@ -866,16 +854,16 @@
         <v>138108</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.05731351584092012</v>
+        <v>0.002078305019206021</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.01591697490227143</v>
+        <v>-0.01372768484636529</v>
       </c>
       <c r="E21" t="n">
-        <v>0.006841629059156005</v>
+        <v>-0.01414347825066369</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.03964228032815527</v>
+        <v>0.01372768484636529</v>
       </c>
       <c r="G21" t="n">
         <v>-0.02290140230842469</v>
@@ -889,16 +877,16 @@
         <v>138109</v>
       </c>
       <c r="C22" t="n">
-        <v>0.003150688263161209</v>
+        <v>0.01339640480910138</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.01668149158315049</v>
+        <v>0.04370109241739405</v>
       </c>
       <c r="E22" t="n">
-        <v>0.01260829546969034</v>
+        <v>0.007159975135128192</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.06762374377910405</v>
+        <v>-0.04370109241739405</v>
       </c>
       <c r="G22" t="n">
         <v>0.02583010545240561</v>
@@ -912,16 +900,16 @@
         <v>138110</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.005686743804341938</v>
+        <v>-0.003235143491026015</v>
       </c>
       <c r="D23" t="n">
-        <v>0.04263897671915603</v>
+        <v>-0.03562452434652957</v>
       </c>
       <c r="E23" t="n">
-        <v>0.02629343555504807</v>
+        <v>-0.00668529668291977</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.0722020135083466</v>
+        <v>0.03562452434652957</v>
       </c>
       <c r="G23" t="n">
         <v>0.009904427836935428</v>
@@ -935,16 +923,16 @@
         <v>138111</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.04643681491450526</v>
+        <v>0.0214631925789147</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.04177443452344031</v>
+        <v>-0.0427690110804539</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0143202588727307</v>
+        <v>-0.02970871719437374</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.03571421346444876</v>
+        <v>0.0427690110804539</v>
       </c>
       <c r="G24" t="n">
         <v>-0.02824440386050234</v>
@@ -958,16 +946,16 @@
         <v>138112</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01657264816920219</v>
+        <v>-0.03224269313686351</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.05837370667445908</v>
+        <v>-0.006453332541969073</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.02582070510873507</v>
+        <v>-0.01583844361395637</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0274474543520818</v>
+        <v>0.006453332541969073</v>
       </c>
       <c r="G25" t="n">
         <v>-0.01325418810508054</v>
@@ -981,16 +969,16 @@
         <v>138201</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.03562189394496641</v>
+        <v>-0.0559963053531903</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.02373285229196091</v>
+        <v>-0.06708324874285912</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.01027128520856264</v>
+        <v>-0.03016842428501629</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.008367426994091917</v>
+        <v>0.06708324874285912</v>
       </c>
       <c r="G26" t="n">
         <v>0.028277700392848</v>
@@ -1004,16 +992,16 @@
         <v>138202</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.05278505998478761</v>
+        <v>-0.02363136839168276</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.06755604996781063</v>
+        <v>-0.00166843462097848</v>
       </c>
       <c r="E27" t="n">
-        <v>0.01741041282542586</v>
+        <v>-8.679077041256339e-05</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.02921408943840904</v>
+        <v>0.00166843462097848</v>
       </c>
       <c r="G27" t="n">
         <v>0.03599469705629717</v>
@@ -1027,16 +1015,16 @@
         <v>138203</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.02887189939302159</v>
+        <v>-0.2130624090960189</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.0046699548761307</v>
+        <v>-0.2133759207680629</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.008933294414862429</v>
+        <v>-0.0573102726642222</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.01508884238593438</v>
+        <v>0.2133759207680629</v>
       </c>
       <c r="G28" t="n">
         <v>0.08891377930564487</v>
@@ -1050,16 +1038,16 @@
         <v>138204</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.2207376202449067</v>
+        <v>-0.03712038058854591</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.2316566157731187</v>
+        <v>-0.1406131710399094</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003357168817660502</v>
+        <v>-0.02888124099051476</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.04593598678478451</v>
+        <v>0.1406131710399094</v>
       </c>
       <c r="G29" t="n">
         <v>0.05921205928369964</v>
@@ -1073,16 +1061,16 @@
         <v>138205</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.05197657949157938</v>
+        <v>0.04507615160047809</v>
       </c>
       <c r="D30" t="n">
-        <v>0.005838213899344566</v>
+        <v>-0.009268433833615294</v>
       </c>
       <c r="E30" t="n">
-        <v>0.005502254083893113</v>
+        <v>0.03555706749257377</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.005838213899344566</v>
+        <v>0.009268433833615294</v>
       </c>
       <c r="G30" t="n">
         <v>-0.007943948491297058</v>
@@ -1096,16 +1084,16 @@
         <v>138206</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.009593783949498872</v>
+        <v>0.005855732937494883</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.07968373353791909</v>
+        <v>-0.06054668295062812</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.03646375375142202</v>
+        <v>-0.05459353706817291</v>
       </c>
       <c r="F31" t="n">
-        <v>0.05868465481611758</v>
+        <v>0.06054668295062812</v>
       </c>
       <c r="G31" t="n">
         <v>-0.0166705797659299</v>
@@ -1119,16 +1107,16 @@
         <v>138207</v>
       </c>
       <c r="C32" t="n">
-        <v>0.005283165197912239</v>
+        <v>-0.06330318632292228</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.05999396110035835</v>
+        <v>-0.06033335994804259</v>
       </c>
       <c r="E32" t="n">
-        <v>0.01106755214602143</v>
+        <v>-0.02739571068851823</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.01743322437741233</v>
+        <v>0.06033335994804259</v>
       </c>
       <c r="G32" t="n">
         <v>0.01645068783458559</v>
@@ -1142,16 +1130,16 @@
         <v>138208</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002977496843262646</v>
+        <v>0.01823737548189644</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.01327708966886122</v>
+        <v>0.03251942357872124</v>
       </c>
       <c r="E33" t="n">
-        <v>0.02083227056426192</v>
+        <v>0.06341998568150727</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.0267554741041149</v>
+        <v>-0.03251942357872124</v>
       </c>
       <c r="G33" t="n">
         <v>0.02673030583719672</v>
@@ -1165,16 +1153,16 @@
         <v>138209</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.02330517943011781</v>
+        <v>-0.06506271172182208</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.006146246328268934</v>
+        <v>-0.009146757086549665</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.00514851361796965</v>
+        <v>0.01114051099619875</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.06113712150084188</v>
+        <v>0.009146757086549665</v>
       </c>
       <c r="G34" t="n">
         <v>0.0425430076721426</v>
@@ -1188,16 +1176,16 @@
         <v>138210</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.04022306759053634</v>
+        <v>0.01883851655365565</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.001454007991164661</v>
+        <v>0.01297528962842916</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002064982720972084</v>
+        <v>0.01674253376496319</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.05023744655251329</v>
+        <v>-0.01297528962842916</v>
       </c>
       <c r="G35" t="n">
         <v>0.006396807310781823</v>
@@ -1211,16 +1199,16 @@
         <v>138211</v>
       </c>
       <c r="C36" t="n">
-        <v>0.008126249825415629</v>
+        <v>-0.01361786468270062</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.009161956438394715</v>
+        <v>-0.03790462165185143</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.0012846685427929</v>
+        <v>-0.02677551538131653</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.01203229711772387</v>
+        <v>0.03790462165185143</v>
       </c>
       <c r="G36" t="n">
         <v>0.01191085964252769</v>
@@ -1234,16 +1222,16 @@
         <v>138212</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.01312888770361043</v>
+        <v>0.04889729966707598</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.04095954213214841</v>
+        <v>-0.09399703391406572</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.02118469360863193</v>
+        <v>-0.06835012557040221</v>
       </c>
       <c r="F37" t="n">
-        <v>0.01829541335256506</v>
+        <v>0.09399703391406572</v>
       </c>
       <c r="G37" t="n">
         <v>0.04370947703497503</v>
@@ -1257,16 +1245,16 @@
         <v>138301</v>
       </c>
       <c r="C38" t="n">
-        <v>0.05122341469711041</v>
+        <v>0.05706670847377465</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.1313347183507058</v>
+        <v>-0.03600432818589784</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1908678621687487</v>
+        <v>-0.01065305659024056</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.1691460529317571</v>
+        <v>0.03600432818589784</v>
       </c>
       <c r="G38" t="n">
         <v>0.02403497111066066</v>
@@ -1280,16 +1268,16 @@
         <v>138302</v>
       </c>
       <c r="C39" t="n">
-        <v>0.02212280387963627</v>
+        <v>-0.05836720125425175</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.06874300675614012</v>
+        <v>-0.1166017234919985</v>
       </c>
       <c r="E39" t="n">
-        <v>0.02158149860765552</v>
+        <v>-0.01329188879371621</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.009323068126063309</v>
+        <v>0.1166017234919985</v>
       </c>
       <c r="G39" t="n">
         <v>0.06583821891286633</v>
@@ -1303,16 +1291,16 @@
         <v>138303</v>
       </c>
       <c r="C40" t="n">
-        <v>0.07965655233401558</v>
+        <v>-0.09594337509769836</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.1508511693125738</v>
+        <v>-0.1527000094202352</v>
       </c>
       <c r="E40" t="n">
-        <v>0.2947821786665892</v>
+        <v>-0.08446097203096277</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.2883065869282778</v>
+        <v>0.1527000094202352</v>
       </c>
       <c r="G40" t="n">
         <v>0.08946487859934239</v>
@@ -1326,16 +1314,16 @@
         <v>138304</v>
       </c>
       <c r="C41" t="n">
-        <v>0.000544917072398223</v>
+        <v>-0.002523682541954661</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.08513459642725595</v>
+        <v>-0.0784529234888509</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.01183336773665171</v>
+        <v>-0.05654714860584912</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.0601239370231787</v>
+        <v>0.0784529234888509</v>
       </c>
       <c r="G41" t="n">
         <v>0.0656837472612771</v>
@@ -1349,16 +1337,16 @@
         <v>138305</v>
       </c>
       <c r="C42" t="n">
-        <v>0.002590960581606204</v>
+        <v>-0.01062274818836951</v>
       </c>
       <c r="D42" t="n">
-        <v>0.08487398676820167</v>
+        <v>-0.03810480287300578</v>
       </c>
       <c r="E42" t="n">
-        <v>0.02860974634580562</v>
+        <v>0.001676644201713227</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.08487398676820167</v>
+        <v>0.03810480287300578</v>
       </c>
       <c r="G42" t="n">
         <v>-0.01355157420442473</v>
@@ -1372,16 +1360,16 @@
         <v>138306</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.0946276483891783</v>
+        <v>0.01986342842778245</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.1525923396541841</v>
+        <v>-0.08827294169578238</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.1029402775718755</v>
+        <v>-0.02269816822232237</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1248510290212943</v>
+        <v>0.08827294169578238</v>
       </c>
       <c r="G43" t="n">
         <v>-0.03549957311981686</v>
@@ -1395,16 +1383,16 @@
         <v>138307</v>
       </c>
       <c r="C44" t="n">
-        <v>0.01232946814526172</v>
+        <v>0.006054675285409334</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.09624457336300238</v>
+        <v>-0.004606281568558128</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.02301210821671218</v>
+        <v>-0.008442137563733715</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06044585573681777</v>
+        <v>0.004606281568558128</v>
       </c>
       <c r="G44" t="n">
         <v>-0.006367417777503333</v>
@@ -1418,16 +1406,16 @@
         <v>138308</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.0321967863824933</v>
+        <v>0.03787765461992912</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.0305448312312676</v>
+        <v>-0.183182704252634</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.01878769090787081</v>
+        <v>-0.06064939209266784</v>
       </c>
       <c r="F45" t="n">
-        <v>0.02189896801326925</v>
+        <v>0.183182704252634</v>
       </c>
       <c r="G45" t="n">
         <v>-0.0620321273758678</v>
@@ -1441,16 +1429,16 @@
         <v>138309</v>
       </c>
       <c r="C46" t="n">
-        <v>0.06422231240564485</v>
+        <v>0.05981591212206633</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.1620211702723565</v>
+        <v>-0.008637613698769812</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.0359888218006273</v>
+        <v>-0.006184215737452661</v>
       </c>
       <c r="F46" t="n">
-        <v>0.06943791784060314</v>
+        <v>0.008637613698769812</v>
       </c>
       <c r="G46" t="n">
         <v>-0.01024201221054725</v>
@@ -1464,16 +1452,16 @@
         <v>138310</v>
       </c>
       <c r="C47" t="n">
-        <v>0.02125578007362361</v>
+        <v>0.03367492330637404</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.04693705754243827</v>
+        <v>-0.009892547400271609</v>
       </c>
       <c r="E47" t="n">
-        <v>0.01320996931353188</v>
+        <v>-0.01177791523058111</v>
       </c>
       <c r="F47" t="n">
-        <v>0.01203417093515104</v>
+        <v>0.009892547400271609</v>
       </c>
       <c r="G47" t="n">
         <v>-0.0403513783330673</v>
@@ -1487,16 +1475,16 @@
         <v>138311</v>
       </c>
       <c r="C48" t="n">
-        <v>0.01203909598132429</v>
+        <v>-0.006050866861662218</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.008560399851010071</v>
+        <v>-0.02091046060480244</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.006020963137264218</v>
+        <v>-0.0189596605950428</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.02742444615483167</v>
+        <v>0.02091046060480244</v>
       </c>
       <c r="G48" t="n">
         <v>-0.01023956876950229</v>
@@ -1510,16 +1498,16 @@
         <v>138312</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.02009804130090811</v>
+        <v>-0.009329422360607648</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.02159918180286684</v>
+        <v>0.02400914861865221</v>
       </c>
       <c r="E49" t="n">
-        <v>0.01029046832723054</v>
+        <v>0.009833351807043485</v>
       </c>
       <c r="F49" t="n">
-        <v>0.008808896914715834</v>
+        <v>-0.02400914861865221</v>
       </c>
       <c r="G49" t="n">
         <v>0.03095640749527194</v>
@@ -1533,16 +1521,16 @@
         <v>138401</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.0235675714716071</v>
+        <v>0.04622942030795372</v>
       </c>
       <c r="D50" t="n">
-        <v>0.02616089966681476</v>
+        <v>0.04658963452670449</v>
       </c>
       <c r="E50" t="n">
-        <v>0.03364483278623356</v>
+        <v>0.03249203922661734</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.02665593946842251</v>
+        <v>-0.04658963452670449</v>
       </c>
       <c r="G50" t="n">
         <v>0.02459982616805347</v>
@@ -1556,16 +1544,16 @@
         <v>138402</v>
       </c>
       <c r="C51" t="n">
-        <v>0.03127292868564203</v>
+        <v>-0.001071820961167393</v>
       </c>
       <c r="D51" t="n">
-        <v>0.02369726931279072</v>
+        <v>0.03770272652968069</v>
       </c>
       <c r="E51" t="n">
-        <v>0.08144729805784742</v>
+        <v>0.02655658549382024</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.121024710942923</v>
+        <v>-0.03770272652968069</v>
       </c>
       <c r="G51" t="n">
         <v>0.01602914186347908</v>
@@ -1579,16 +1567,16 @@
         <v>138403</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0002469510277600334</v>
+        <v>0.01983454311706851</v>
       </c>
       <c r="D52" t="n">
-        <v>0.04431962740251193</v>
+        <v>-0.03992479018112651</v>
       </c>
       <c r="E52" t="n">
-        <v>0.04531805095715082</v>
+        <v>-0.08992478762332881</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.07629654821705502</v>
+        <v>0.03992479018112651</v>
       </c>
       <c r="G52" t="n">
         <v>-0.1422343500459097</v>
@@ -1602,16 +1590,16 @@
         <v>138404</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0327138850594384</v>
+        <v>0.02491137279946072</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.0364901659595177</v>
+        <v>-0.0109800015335641</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.06578229535108901</v>
+        <v>0.003842948688943467</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.01421951277978216</v>
+        <v>0.0109800015335641</v>
       </c>
       <c r="G53" t="n">
         <v>0.01472091475128944</v>
@@ -1625,16 +1613,16 @@
         <v>138405</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0473050819034905</v>
+        <v>0.0218508766189698</v>
       </c>
       <c r="D54" t="n">
-        <v>0.09858157789816854</v>
+        <v>0.02045267332052759</v>
       </c>
       <c r="E54" t="n">
-        <v>0.05912923366328363</v>
+        <v>0.002389426353554429</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.09858157789816854</v>
+        <v>-0.02045267332052759</v>
       </c>
       <c r="G54" t="n">
         <v>0.01539233344893422</v>
@@ -1648,16 +1636,16 @@
         <v>138406</v>
       </c>
       <c r="C55" t="n">
-        <v>0.01226612155251756</v>
+        <v>0.001103221975320326</v>
       </c>
       <c r="D55" t="n">
-        <v>0.01017393640375754</v>
+        <v>-0.0009397446144734367</v>
       </c>
       <c r="E55" t="n">
-        <v>0.03470597398498904</v>
+        <v>-0.009750414368822902</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.03947223098125149</v>
+        <v>0.0009397446144734367</v>
       </c>
       <c r="G55" t="n">
         <v>-0.01120640327899678</v>
@@ -1671,16 +1659,16 @@
         <v>138407</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.002448923851817268</v>
+        <v>-0.01322495866514022</v>
       </c>
       <c r="D56" t="n">
-        <v>0.004465561031776061</v>
+        <v>0.0109687839067358</v>
       </c>
       <c r="E56" t="n">
-        <v>0.009566351035036211</v>
+        <v>-0.005032213135934181</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.02546868420826647</v>
+        <v>-0.0109687839067358</v>
       </c>
       <c r="G56" t="n">
         <v>-0.01012483245505072</v>
@@ -1694,16 +1682,16 @@
         <v>138408</v>
       </c>
       <c r="C57" t="n">
-        <v>0.008844657181501289</v>
+        <v>0.007799076306890626</v>
       </c>
       <c r="D57" t="n">
-        <v>0.009600335703162717</v>
+        <v>0.06338969197159836</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002310239264335379</v>
+        <v>0.04507463878281052</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.02321673006914757</v>
+        <v>-0.06338969197159836</v>
       </c>
       <c r="G57" t="n">
         <v>0.03482389675989547</v>
@@ -1717,16 +1705,16 @@
         <v>138409</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.04018125095321786</v>
+        <v>0.002718472641336411</v>
       </c>
       <c r="D58" t="n">
-        <v>0.03050299610073125</v>
+        <v>0.01132204477461635</v>
       </c>
       <c r="E58" t="n">
-        <v>0.03858035573253746</v>
+        <v>-0.009824388741741248</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.06266711912778078</v>
+        <v>-0.01132204477461635</v>
       </c>
       <c r="G58" t="n">
         <v>0.006135885739341738</v>
@@ -1740,16 +1728,16 @@
         <v>138410</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.0003180757217519359</v>
+        <v>0.001059364608568397</v>
       </c>
       <c r="D59" t="n">
-        <v>0.005461912864778616</v>
+        <v>0.005685657271940411</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.001792990849885184</v>
+        <v>-0.003482318281704304</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.01575803336724986</v>
+        <v>-0.005685657271940411</v>
       </c>
       <c r="G59" t="n">
         <v>0.02531183984521852</v>
@@ -1763,16 +1751,16 @@
         <v>138411</v>
       </c>
       <c r="C60" t="n">
-        <v>0.006511598609384305</v>
+        <v>0.02350957591952249</v>
       </c>
       <c r="D60" t="n">
-        <v>0.003699188155823353</v>
+        <v>-0.01934474030130051</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0132663348490728</v>
+        <v>0.009621386381074324</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.02830024674648627</v>
+        <v>0.01934474030130051</v>
       </c>
       <c r="G60" t="n">
         <v>0.03433729961811771</v>
@@ -1786,16 +1774,16 @@
         <v>138412</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0349296249415422</v>
+        <v>-0.003329836486731373</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.03473909796268881</v>
+        <v>0.006864759946200904</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.002328885879289411</v>
+        <v>0.001576720010975894</v>
       </c>
       <c r="F61" t="n">
-        <v>0.004638470367427535</v>
+        <v>-0.006864759946200904</v>
       </c>
       <c r="G61" t="n">
         <v>0.01498799608058808</v>
@@ -1809,16 +1797,16 @@
         <v>138501</v>
       </c>
       <c r="C62" t="n">
-        <v>0.02159810525235194</v>
+        <v>0.06481760724029197</v>
       </c>
       <c r="D62" t="n">
-        <v>0.02745703533528705</v>
+        <v>0.06719168282675694</v>
       </c>
       <c r="E62" t="n">
-        <v>0.01876788697214971</v>
+        <v>0.07183104616934431</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.02214923083183771</v>
+        <v>-0.06719168282675694</v>
       </c>
       <c r="G62" t="n">
         <v>0.02092650781741449</v>
@@ -1832,16 +1820,16 @@
         <v>138502</v>
       </c>
       <c r="C63" t="n">
-        <v>0.01722358784288853</v>
+        <v>0.01655443843459018</v>
       </c>
       <c r="D63" t="n">
-        <v>0.03222835612674728</v>
+        <v>-0.004515062502138713</v>
       </c>
       <c r="E63" t="n">
-        <v>0.02423295671708625</v>
+        <v>-0.01682965935269306</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.04465425536422457</v>
+        <v>0.004515062502138713</v>
       </c>
       <c r="G63" t="n">
         <v>0.01173290291699987</v>
@@ -1855,16 +1843,16 @@
         <v>138503</v>
       </c>
       <c r="C64" t="n">
-        <v>0.02843064971248753</v>
+        <v>0.01706063884926982</v>
       </c>
       <c r="D64" t="n">
-        <v>0.01326814922591788</v>
+        <v>0.01269183703897967</v>
       </c>
       <c r="E64" t="n">
-        <v>0.01932092077301202</v>
+        <v>-0.05509009419586679</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.06408724172032298</v>
+        <v>-0.01269183703897967</v>
       </c>
       <c r="G64" t="n">
         <v>0.002060934385651053</v>
@@ -1878,16 +1866,16 @@
         <v>138504</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.007220513226071037</v>
+        <v>-0.003629319760595655</v>
       </c>
       <c r="D65" t="n">
-        <v>0.01738728299446091</v>
+        <v>-0.008930706336051975</v>
       </c>
       <c r="E65" t="n">
-        <v>0.06835344812352</v>
+        <v>-0.01808391983592494</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.1247556735492452</v>
+        <v>0.008930706336051975</v>
       </c>
       <c r="G65" t="n">
         <v>0.07836353407917911</v>
@@ -1901,16 +1889,16 @@
         <v>138505</v>
       </c>
       <c r="C66" t="n">
-        <v>0.01470890214691374</v>
+        <v>0.004398908490275424</v>
       </c>
       <c r="D66" t="n">
-        <v>0.04447999122176981</v>
+        <v>0.0167841779470848</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.004255196389145476</v>
+        <v>0.01290383430736872</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.04447999122176981</v>
+        <v>-0.0167841779470848</v>
       </c>
       <c r="G66" t="n">
         <v>0.02316381225082188</v>
@@ -1924,16 +1912,16 @@
         <v>138506</v>
       </c>
       <c r="C67" t="n">
-        <v>0.03602604158245346</v>
+        <v>-0.01285208408375529</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0183292961860958</v>
+        <v>-0.0009794637309734318</v>
       </c>
       <c r="E67" t="n">
-        <v>0.03869582384531377</v>
+        <v>-0.007738239540733854</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.05685470522815183</v>
+        <v>0.0009794637309734318</v>
       </c>
       <c r="G67" t="n">
         <v>0.01836367210999182</v>
@@ -1947,16 +1935,16 @@
         <v>138507</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.01158568387422119</v>
+        <v>0.01329255792312825</v>
       </c>
       <c r="D68" t="n">
-        <v>0.005560119760743157</v>
+        <v>0.03933726218315266</v>
       </c>
       <c r="E68" t="n">
-        <v>0.01154265347949539</v>
+        <v>0.02968283348598527</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.0215103240624452</v>
+        <v>-0.03933726218315266</v>
       </c>
       <c r="G68" t="n">
         <v>0.03948112332788417</v>
@@ -1970,16 +1958,16 @@
         <v>138508</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0216229587178765</v>
+        <v>-0.006918511857976324</v>
       </c>
       <c r="D69" t="n">
-        <v>0.04076398011588903</v>
+        <v>0.06327899262099995</v>
       </c>
       <c r="E69" t="n">
-        <v>0.05393583515416059</v>
+        <v>0.0384337885457719</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.06536903531827294</v>
+        <v>-0.06327899262099995</v>
       </c>
       <c r="G69" t="n">
         <v>0.05002243335015012</v>
@@ -1993,16 +1981,16 @@
         <v>138509</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.02294511272561138</v>
+        <v>0.01771977169823517</v>
       </c>
       <c r="D70" t="n">
-        <v>0.06593582674397101</v>
+        <v>-0.01764709700156804</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0403746700945591</v>
+        <v>-0.01387503582456446</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.0862599232506305</v>
+        <v>0.01764709700156804</v>
       </c>
       <c r="G70" t="n">
         <v>-0.02859308411960707</v>
@@ -2016,16 +2004,16 @@
         <v>138510</v>
       </c>
       <c r="C71" t="n">
-        <v>0.01238661009163173</v>
+        <v>0.001282945688627042</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.01830895996278784</v>
+        <v>-0.01860452219978817</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.004661536382103254</v>
+        <v>0.0005659953218156086</v>
       </c>
       <c r="F71" t="n">
-        <v>0.007973620532438505</v>
+        <v>0.01860452219978817</v>
       </c>
       <c r="G71" t="n">
         <v>-0.0145676060465109</v>
@@ -2039,16 +2027,16 @@
         <v>138511</v>
       </c>
       <c r="C72" t="n">
-        <v>0.002580697372451323</v>
+        <v>0.0005416348478644664</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.02017402930485775</v>
+        <v>0.003676806232582322</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0006102560271361666</v>
+        <v>0.02070861451755334</v>
       </c>
       <c r="F72" t="n">
-        <v>0.01626589974792823</v>
+        <v>-0.003676806232582322</v>
       </c>
       <c r="G72" t="n">
         <v>0.004365054928328553</v>
@@ -2062,16 +2050,16 @@
         <v>138512</v>
       </c>
       <c r="C73" t="n">
-        <v>0.001958818836018742</v>
+        <v>-0.002069765572475499</v>
       </c>
       <c r="D73" t="n">
-        <v>0.004410293804607858</v>
+        <v>0.004628971838490287</v>
       </c>
       <c r="E73" t="n">
-        <v>0.01906402490301644</v>
+        <v>-0.007050929865262508</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.01219163911346273</v>
+        <v>-0.004628971838490287</v>
       </c>
       <c r="G73" t="n">
         <v>0.01100704605053973</v>
@@ -2085,16 +2073,16 @@
         <v>138601</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.003374148803183456</v>
+        <v>0.008713369315096075</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.001628104940596897</v>
+        <v>0.008385961581261307</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.006334812030387464</v>
+        <v>0.009363948619084947</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.004328521221926295</v>
+        <v>-0.008385961581261307</v>
       </c>
       <c r="G74" t="n">
         <v>0.01446159051715803</v>
@@ -2108,16 +2096,16 @@
         <v>138602</v>
       </c>
       <c r="C75" t="n">
-        <v>0.01189644990921444</v>
+        <v>0.02936556631618325</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.001756202560324902</v>
+        <v>0.03361418329007201</v>
       </c>
       <c r="E75" t="n">
-        <v>0.02678905622326155</v>
+        <v>0.02824933594670662</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.03673939787249093</v>
+        <v>-0.03361418329007201</v>
       </c>
       <c r="G75" t="n">
         <v>0.02729844518194261</v>
@@ -2131,16 +2119,16 @@
         <v>138603</v>
       </c>
       <c r="C76" t="n">
-        <v>0.01182266730296709</v>
+        <v>0.02224216382538316</v>
       </c>
       <c r="D76" t="n">
-        <v>0.01074094347238288</v>
+        <v>-0.01890723532552899</v>
       </c>
       <c r="E76" t="n">
-        <v>0.02902824703520414</v>
+        <v>-0.007167861490770915</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.03382777646910765</v>
+        <v>0.01890723532552899</v>
       </c>
       <c r="G76" t="n">
         <v>0.04334781354239722</v>
@@ -2154,16 +2142,16 @@
         <v>138604</v>
       </c>
       <c r="C77" t="n">
-        <v>0.02035940142247863</v>
+        <v>0.01097414717357185</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.01720174818795421</v>
+        <v>-0.0207838165912581</v>
       </c>
       <c r="E77" t="n">
-        <v>0.004907587783298153</v>
+        <v>-0.01590350415442437</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.01936905422604394</v>
+        <v>0.0207838165912581</v>
       </c>
       <c r="G77" t="n">
         <v>0.08127597771883421</v>
@@ -2177,16 +2165,16 @@
         <v>138605</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.007856965812375022</v>
+        <v>-0.02795933185870638</v>
       </c>
       <c r="D78" t="n">
-        <v>0.03570963433412245</v>
+        <v>-0.03402369942069432</v>
       </c>
       <c r="E78" t="n">
-        <v>0.02925304413095896</v>
+        <v>-0.04192091505952497</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.03570963433412245</v>
+        <v>0.03402369942069432</v>
       </c>
       <c r="G78" t="n">
         <v>0.03639803524649975</v>
@@ -2200,16 +2188,16 @@
         <v>138606</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.02991953981879752</v>
+        <v>0.006963645722218308</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.03014710070990963</v>
+        <v>-0.01162365657254599</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.01251235754667141</v>
+        <v>-0.008283314882463678</v>
       </c>
       <c r="F79" t="n">
-        <v>0.009813783127504926</v>
+        <v>0.01162365657254599</v>
       </c>
       <c r="G79" t="n">
         <v>0.01533625579840358</v>
@@ -2223,16 +2211,16 @@
         <v>138607</v>
       </c>
       <c r="C80" t="n">
-        <v>0.01307797032534683</v>
+        <v>0.01085022707427389</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.01722227095869353</v>
+        <v>-0.0338538478258134</v>
       </c>
       <c r="E80" t="n">
-        <v>0.006037406419578895</v>
+        <v>-0.02338298165901156</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.01148177154589432</v>
+        <v>0.0338538478258134</v>
       </c>
       <c r="G80" t="n">
         <v>0.0132915966386367</v>
@@ -2246,16 +2234,16 @@
         <v>138608</v>
       </c>
       <c r="C81" t="n">
-        <v>0.02670549009913142</v>
+        <v>0.0267815971461786</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.02891481005447014</v>
+        <v>-0.01160834627538016</v>
       </c>
       <c r="E81" t="n">
-        <v>0.02195606104630588</v>
+        <v>-0.005481291813814241</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.01494590382006544</v>
+        <v>0.01160834627538016</v>
       </c>
       <c r="G81" t="n">
         <v>0.0167375135448413</v>
@@ -2269,16 +2257,16 @@
         <v>138609</v>
       </c>
       <c r="C82" t="n">
-        <v>0.01711051068804163</v>
+        <v>-0.03474040715415806</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.0131984654024218</v>
+        <v>-0.0362248597708776</v>
       </c>
       <c r="E82" t="n">
-        <v>0.004201961307933659</v>
+        <v>-0.0148191360933352</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.01712527932125908</v>
+        <v>0.0362248597708776</v>
       </c>
       <c r="G82" t="n">
         <v>0.02087487462747123</v>
@@ -2292,16 +2280,16 @@
         <v>138610</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.02587117174775886</v>
+        <v>0.06266320941654069</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.0304809850192591</v>
+        <v>-0.05502908131023947</v>
       </c>
       <c r="E83" t="n">
-        <v>0.02385113552046524</v>
+        <v>-0.04552945688707351</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.02890625512881832</v>
+        <v>0.05502908131023947</v>
       </c>
       <c r="G83" t="n">
         <v>0.0459397118374364</v>
@@ -2315,16 +2303,16 @@
         <v>138611</v>
       </c>
       <c r="C84" t="n">
-        <v>0.03613067035673365</v>
+        <v>0.02463709447734629</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.05963873944635335</v>
+        <v>-0.00839974381264013</v>
       </c>
       <c r="E84" t="n">
-        <v>0.01555046086059159</v>
+        <v>0.01675503328743067</v>
       </c>
       <c r="F84" t="n">
-        <v>0.007257377191194424</v>
+        <v>0.00839974381264013</v>
       </c>
       <c r="G84" t="n">
         <v>0.0313809803262628</v>
@@ -2338,16 +2326,16 @@
         <v>138612</v>
       </c>
       <c r="C85" t="n">
-        <v>0.01959530039522825</v>
+        <v>-0.003407382058971389</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.01640442458706981</v>
+        <v>-0.00637734393374504</v>
       </c>
       <c r="E85" t="n">
-        <v>0.03701129902137738</v>
+        <v>-0.002703113860387252</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.03628634270034935</v>
+        <v>0.00637734393374504</v>
       </c>
       <c r="G85" t="n">
         <v>0.02754847988976523</v>
@@ -2361,16 +2349,16 @@
         <v>138701</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.01047579650386444</v>
+        <v>0.02006282766694159</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.01577485713525592</v>
+        <v>0.03299836727769299</v>
       </c>
       <c r="E86" t="n">
-        <v>0.01305208644713588</v>
+        <v>0.01432476207795759</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.02455699014534343</v>
+        <v>-0.03299836727769299</v>
       </c>
       <c r="G86" t="n">
         <v>0.03827257464634728</v>
@@ -2384,16 +2372,16 @@
         <v>138702</v>
       </c>
       <c r="C87" t="n">
-        <v>0.01495734271685491</v>
+        <v>-0.03425871223152348</v>
       </c>
       <c r="D87" t="n">
-        <v>0.026810126633546</v>
+        <v>0.002101481693532798</v>
       </c>
       <c r="E87" t="n">
-        <v>0.04595362174967373</v>
+        <v>-0.02007443565789035</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.1019132328026812</v>
+        <v>-0.002101481693532798</v>
       </c>
       <c r="G87" t="n">
         <v>0.04709824412216494</v>
@@ -2407,16 +2395,16 @@
         <v>138703</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.04534358721127973</v>
+        <v>-0.02247513504816021</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.003557111856541435</v>
+        <v>-0.03249749753127244</v>
       </c>
       <c r="E88" t="n">
-        <v>0.04011364070918411</v>
+        <v>-0.0208660357598185</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.09094633874169457</v>
+        <v>0.03249749753127244</v>
       </c>
       <c r="G88" t="n">
         <v>0.02880622098027669</v>
@@ -2430,16 +2418,16 @@
         <v>138704</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.06013905131196275</v>
+        <v>-0.05162320484050648</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.05346365919655686</v>
+        <v>0.003447952684284925</v>
       </c>
       <c r="E89" t="n">
-        <v>-0.02632883384313886</v>
+        <v>-0.003570102188951367</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.02058114073699002</v>
+        <v>-0.003447952684284925</v>
       </c>
       <c r="G89" t="n">
         <v>-0.05769667544487307</v>
@@ -2453,16 +2441,16 @@
         <v>138705</v>
       </c>
       <c r="C90" t="n">
-        <v>0.02047020209539349</v>
+        <v>0.01466124734964257</v>
       </c>
       <c r="D90" t="n">
-        <v>0.04282432739503169</v>
+        <v>-0.02871598333442475</v>
       </c>
       <c r="E90" t="n">
-        <v>0.07643063868544353</v>
+        <v>-0.02665107466642364</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.04282432739503169</v>
+        <v>0.02871598333442475</v>
       </c>
       <c r="G90" t="n">
         <v>-0.03798895591634865</v>
@@ -2476,16 +2464,16 @@
         <v>138706</v>
       </c>
       <c r="C91" t="n">
-        <v>0.001271367490669426</v>
+        <v>0.04004522141511662</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.02708576230441907</v>
+        <v>-0.04023624498335301</v>
       </c>
       <c r="E91" t="n">
-        <v>-0.01749713783520501</v>
+        <v>-0.03189404741423195</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.005060778562725979</v>
+        <v>0.04023624498335301</v>
       </c>
       <c r="G91" t="n">
         <v>-0.01692372340605614</v>
@@ -2499,16 +2487,16 @@
         <v>138707</v>
       </c>
       <c r="C92" t="n">
-        <v>0.03965908252384603</v>
+        <v>0.05484217897684387</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.04794797625372514</v>
+        <v>-0.08918701269839641</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002655086945026801</v>
+        <v>-0.04170912634167574</v>
       </c>
       <c r="F92" t="n">
-        <v>0.01790664871786351</v>
+        <v>0.08918701269839641</v>
       </c>
       <c r="G92" t="n">
         <v>0.02079382418734686</v>
@@ -2522,16 +2510,16 @@
         <v>138708</v>
       </c>
       <c r="C93" t="n">
-        <v>0.05839007865508631</v>
+        <v>0.0441360659395502</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.08410666456556812</v>
+        <v>-0.02593528144032101</v>
       </c>
       <c r="E93" t="n">
-        <v>0.01248944206957648</v>
+        <v>-0.009239936671707853</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.02056233405708055</v>
+        <v>0.02593528144032101</v>
       </c>
       <c r="G93" t="n">
         <v>-0.006413153978642734</v>
@@ -2545,16 +2533,16 @@
         <v>138709</v>
       </c>
       <c r="C94" t="n">
-        <v>0.022912464308211</v>
+        <v>-0.01296791939271873</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.03405617614581902</v>
+        <v>-0.0494360362765153</v>
       </c>
       <c r="E94" t="n">
-        <v>-0.00689766816016682</v>
+        <v>-0.01839014149006649</v>
       </c>
       <c r="F94" t="n">
-        <v>0.009409602681014415</v>
+        <v>0.0494360362765153</v>
       </c>
       <c r="G94" t="n">
         <v>-0.008259716377486433</v>
@@ -2568,16 +2556,16 @@
         <v>138710</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.007812271660519826</v>
+        <v>-0.003333330834638781</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.04732611601650164</v>
+        <v>-0.04260602641092012</v>
       </c>
       <c r="E95" t="n">
-        <v>0.006687432324754251</v>
+        <v>-0.03283449251599725</v>
       </c>
       <c r="F95" t="n">
-        <v>0.01720280586985123</v>
+        <v>0.04260602641092012</v>
       </c>
       <c r="G95" t="n">
         <v>0.02148046790353783</v>
@@ -2591,16 +2579,16 @@
         <v>138711</v>
       </c>
       <c r="C96" t="n">
-        <v>8.790715388883157e-05</v>
+        <v>-0.01942774096250968</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.03766398925047763</v>
+        <v>-0.05659720469624723</v>
       </c>
       <c r="E96" t="n">
-        <v>0.01055349358713272</v>
+        <v>-0.0405593893342133</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.03293448093837127</v>
+        <v>0.05659720469624723</v>
       </c>
       <c r="G96" t="n">
         <v>0.02275308144869043</v>
@@ -2614,16 +2602,16 @@
         <v>138712</v>
       </c>
       <c r="C97" t="n">
-        <v>-0.03817873949785277</v>
+        <v>-0.06290596631960071</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.03698490471506011</v>
+        <v>-0.07048155104827283</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004588877108909824</v>
+        <v>-0.02884235215361519</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.02679626087762742</v>
+        <v>0.07048155104827283</v>
       </c>
       <c r="G97" t="n">
         <v>-0.01374313102362897</v>
@@ -2637,16 +2625,16 @@
         <v>138801</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.0241241289298294</v>
+        <v>0.02119134405671843</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.06541661089513637</v>
+        <v>-0.05710288549352055</v>
       </c>
       <c r="E98" t="n">
-        <v>-0.01639444210377611</v>
+        <v>-0.01731703987352515</v>
       </c>
       <c r="F98" t="n">
-        <v>0.001774167740712401</v>
+        <v>0.05710288549352055</v>
       </c>
       <c r="G98" t="n">
         <v>-0.07409552707184414</v>
@@ -2660,16 +2648,16 @@
         <v>138802</v>
       </c>
       <c r="C99" t="n">
-        <v>0.01168348269090927</v>
+        <v>-0.01775619248004699</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.06577025723112753</v>
+        <v>-0.07219321172209536</v>
       </c>
       <c r="E99" t="n">
-        <v>-0.01437410744001451</v>
+        <v>-0.03196940153077039</v>
       </c>
       <c r="F99" t="n">
-        <v>0.01300525015385244</v>
+        <v>0.07219321172209536</v>
       </c>
       <c r="G99" t="n">
         <v>-0.03761215904285399</v>
@@ -2683,16 +2671,16 @@
         <v>138803</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.03267509146708557</v>
+        <v>0.01553645450564631</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.07496903571073599</v>
+        <v>-0.01043662145841982</v>
       </c>
       <c r="E100" t="n">
-        <v>-0.01045621216333069</v>
+        <v>-0.0192360748965032</v>
       </c>
       <c r="F100" t="n">
-        <v>3.88350104084112e-05</v>
+        <v>0.01043662145841982</v>
       </c>
       <c r="G100" t="n">
         <v>0.08984313269267719</v>
@@ -2706,16 +2694,16 @@
         <v>138804</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0101271056795201</v>
+        <v>-0.05362747863840206</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.02038381030646598</v>
+        <v>0.02974379591239498</v>
       </c>
       <c r="E101" t="n">
-        <v>0.004015916827637384</v>
+        <v>-0.04501694035103963</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.01184577823532199</v>
+        <v>-0.02974379591239498</v>
       </c>
       <c r="G101" t="n">
         <v>-0.0009969260985507045</v>
@@ -2729,16 +2717,16 @@
         <v>138805</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.04016791715081834</v>
+        <v>-0.01237248275467955</v>
       </c>
       <c r="D102" t="n">
-        <v>0.06419096369161295</v>
+        <v>-0.001510336194440992</v>
       </c>
       <c r="E102" t="n">
-        <v>0.01700290506232877</v>
+        <v>-0.009098445109572778</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.06419096369161295</v>
+        <v>0.001510336194440992</v>
       </c>
       <c r="G102" t="n">
         <v>-0.05763661805608754</v>
@@ -2752,16 +2740,16 @@
         <v>138806</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.03247347368878829</v>
+        <v>-0.005658094126117064</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.0004202182090766518</v>
+        <v>-0.09980013163988542</v>
       </c>
       <c r="E103" t="n">
-        <v>0.01496836869781951</v>
+        <v>-0.03871797997266678</v>
       </c>
       <c r="F103" t="n">
-        <v>-0.03449197129934649</v>
+        <v>0.09980013163988542</v>
       </c>
       <c r="G103" t="n">
         <v>0.01881196148652584</v>
@@ -2775,16 +2763,16 @@
         <v>138807</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.006252786592528647</v>
+        <v>0.02312386849923126</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.09781282449988407</v>
+        <v>-0.04746060116295338</v>
       </c>
       <c r="E104" t="n">
-        <v>-0.02529278898714728</v>
+        <v>-0.01037674213868305</v>
       </c>
       <c r="F104" t="n">
-        <v>0.05657160681010293</v>
+        <v>0.04746060116295338</v>
       </c>
       <c r="G104" t="n">
         <v>0.002137175179421091</v>
@@ -2798,16 +2786,16 @@
         <v>138808</v>
       </c>
       <c r="C105" t="n">
-        <v>0.00914635726617897</v>
+        <v>0.03630167309333099</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.0428026621433624</v>
+        <v>-0.004307141533511541</v>
       </c>
       <c r="E105" t="n">
-        <v>0.02557383152507255</v>
+        <v>-0.01038118949025336</v>
       </c>
       <c r="F105" t="n">
-        <v>-7.40920604170095e-05</v>
+        <v>0.004307141533511541</v>
       </c>
       <c r="G105" t="n">
         <v>-0.02376984839710189</v>
@@ -2821,16 +2809,16 @@
         <v>138809</v>
       </c>
       <c r="C106" t="n">
-        <v>0.04677030044089899</v>
+        <v>-0.02968038763536423</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.0005606613945965677</v>
+        <v>-0.01692655630717447</v>
       </c>
       <c r="E106" t="n">
-        <v>0.003720528449665597</v>
+        <v>-0.0265221858627831</v>
       </c>
       <c r="F106" t="n">
-        <v>-0.01974061953518617</v>
+        <v>0.01692655630717447</v>
       </c>
       <c r="G106" t="n">
         <v>0.01916765446640818</v>
@@ -2844,16 +2832,16 @@
         <v>138810</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.02732485874178382</v>
+        <v>-0.003500370413254426</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.01141986820333877</v>
+        <v>-0.02031140130380132</v>
       </c>
       <c r="E107" t="n">
-        <v>-0.01059110466218819</v>
+        <v>-0.01031833396844303</v>
       </c>
       <c r="F107" t="n">
-        <v>-0.01378273283680793</v>
+        <v>0.02031140130380132</v>
       </c>
       <c r="G107" t="n">
         <v>0.05430170761616774</v>
@@ -2867,16 +2855,16 @@
         <v>138811</v>
       </c>
       <c r="C108" t="n">
-        <v>-0.009493892546430398</v>
+        <v>0.01634776475098382</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.01796642794556026</v>
+        <v>-0.09248109478513625</v>
       </c>
       <c r="E108" t="n">
-        <v>0.02451997046236282</v>
+        <v>-0.08006341126491104</v>
       </c>
       <c r="F108" t="n">
-        <v>-0.03528565630472782</v>
+        <v>0.09248109478513625</v>
       </c>
       <c r="G108" t="n">
         <v>0.03689391540240182</v>
@@ -2890,16 +2878,16 @@
         <v>138812</v>
       </c>
       <c r="C109" t="n">
-        <v>0.05141038526333285</v>
+        <v>-0.03021048916131534</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.07085323335856952</v>
+        <v>-0.008147378107191884</v>
       </c>
       <c r="E109" t="n">
-        <v>0.0601462625346364</v>
+        <v>-0.0255804429046235</v>
       </c>
       <c r="F109" t="n">
-        <v>-0.05162229046737997</v>
+        <v>0.008147378107191884</v>
       </c>
       <c r="G109" t="n">
         <v>0.004195027819536484</v>
@@ -2913,16 +2901,16 @@
         <v>138901</v>
       </c>
       <c r="C110" t="n">
-        <v>-0.02996721162884319</v>
+        <v>-0.009100246046580749</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.004461731428282795</v>
+        <v>-0.00950686787684385</v>
       </c>
       <c r="E110" t="n">
-        <v>-0.00222228838867726</v>
+        <v>-0.00751945265928633</v>
       </c>
       <c r="F110" t="n">
-        <v>-0.01633256967164858</v>
+        <v>0.00950686787684385</v>
       </c>
       <c r="G110" t="n">
         <v>-0.002958805421662519</v>
@@ -2936,16 +2924,16 @@
         <v>138902</v>
       </c>
       <c r="C111" t="n">
-        <v>-0.001034987295920448</v>
+        <v>-0.02371613322335377</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.00529143449116222</v>
+        <v>-0.009855760772581618</v>
       </c>
       <c r="E111" t="n">
-        <v>-0.007731557572520599</v>
+        <v>-0.02024451735469598</v>
       </c>
       <c r="F111" t="n">
-        <v>-0.005404015782626961</v>
+        <v>0.009855760772581618</v>
       </c>
       <c r="G111" t="n">
         <v>0.007834413924113624</v>
@@ -2959,16 +2947,16 @@
         <v>138903</v>
       </c>
       <c r="C112" t="n">
-        <v>-0.0243642756673762</v>
+        <v>-0.0331013444125403</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.006249516788976608</v>
+        <v>-0.06987897165496704</v>
       </c>
       <c r="E112" t="n">
-        <v>-0.02272901410576771</v>
+        <v>-0.05045399099693042</v>
       </c>
       <c r="F112" t="n">
-        <v>0.01390129098581144</v>
+        <v>0.06987897165496704</v>
       </c>
       <c r="G112" t="n">
         <v>0.02947131948309838</v>
@@ -2982,16 +2970,16 @@
         <v>138904</v>
       </c>
       <c r="C113" t="n">
-        <v>-0.0309017513514986</v>
+        <v>0.006305733010638193</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.07078610052930941</v>
+        <v>-0.03230375172656348</v>
       </c>
       <c r="E113" t="n">
-        <v>-0.01244330026388425</v>
+        <v>-0.009459332909004345</v>
       </c>
       <c r="F113" t="n">
-        <v>0.005428301836800181</v>
+        <v>0.03230375172656348</v>
       </c>
       <c r="G113" t="n">
         <v>0.01295783382398155</v>
@@ -3005,16 +2993,16 @@
         <v>138905</v>
       </c>
       <c r="C114" t="n">
-        <v>0.007575118938416586</v>
+        <v>0.008978632014956286</v>
       </c>
       <c r="D114" t="n">
-        <v>0.02549210503549953</v>
+        <v>-0.01507615166320177</v>
       </c>
       <c r="E114" t="n">
-        <v>0.01743196954134635</v>
+        <v>0.01052015570669622</v>
       </c>
       <c r="F114" t="n">
-        <v>-0.02549210503549953</v>
+        <v>0.01507615166320177</v>
       </c>
       <c r="G114" t="n">
         <v>-0.02572744781582961</v>
@@ -3028,16 +3016,16 @@
         <v>138906</v>
       </c>
       <c r="C115" t="n">
-        <v>-0.01269382032745057</v>
+        <v>0.02689452936341376</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.02892669844042686</v>
+        <v>0.01865019605519752</v>
       </c>
       <c r="E115" t="n">
-        <v>0.02475279188004803</v>
+        <v>0.02117778600760272</v>
       </c>
       <c r="F115" t="n">
-        <v>-0.02858918417339788</v>
+        <v>-0.01865019605519752</v>
       </c>
       <c r="G115" t="n">
         <v>-0.004381741061059163</v>
@@ -3051,16 +3039,16 @@
         <v>138907</v>
       </c>
       <c r="C116" t="n">
-        <v>0.03197286682596284</v>
+        <v>0.01957544956296904</v>
       </c>
       <c r="D116" t="n">
-        <v>0.01467513924120854</v>
+        <v>0.004562359796197457</v>
       </c>
       <c r="E116" t="n">
-        <v>0.03769514453486476</v>
+        <v>-0.01711024785697699</v>
       </c>
       <c r="F116" t="n">
-        <v>-0.06411281307043756</v>
+        <v>-0.004562359796197457</v>
       </c>
       <c r="G116" t="n">
         <v>-0.004351340295725165</v>
@@ -3074,16 +3062,16 @@
         <v>138908</v>
       </c>
       <c r="C117" t="n">
-        <v>0.00318982603816824</v>
+        <v>0.008238580982931658</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.003071731054587371</v>
+        <v>0.01046446645235954</v>
       </c>
       <c r="E117" t="n">
-        <v>-0.007880253501605924</v>
+        <v>0.00913517493746276</v>
       </c>
       <c r="F117" t="n">
-        <v>-0.01191627537691754</v>
+        <v>-0.01046446645235954</v>
       </c>
       <c r="G117" t="n">
         <v>-0.003103505455297806</v>
@@ -3097,16 +3085,16 @@
         <v>138909</v>
       </c>
       <c r="C118" t="n">
-        <v>-0.00572386562481888</v>
+        <v>-0.07093484554745408</v>
       </c>
       <c r="D118" t="n">
-        <v>0.01062802789742528</v>
+        <v>-0.07412226190070825</v>
       </c>
       <c r="E118" t="n">
-        <v>0.0215677295234072</v>
+        <v>-0.01703279820585267</v>
       </c>
       <c r="F118" t="n">
-        <v>-0.04145663247682193</v>
+        <v>0.07412226190070825</v>
       </c>
       <c r="G118" t="n">
         <v>0.00935737008079493</v>
@@ -3120,16 +3108,16 @@
         <v>138910</v>
       </c>
       <c r="C119" t="n">
-        <v>-0.06703294898401226</v>
+        <v>-0.008103518799960838</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.06433206182877153</v>
+        <v>-0.01143286656358625</v>
       </c>
       <c r="E119" t="n">
-        <v>0.02908725736578764</v>
+        <v>0.005216579346720832</v>
       </c>
       <c r="F119" t="n">
-        <v>-0.02679944930784046</v>
+        <v>0.01143286656358625</v>
       </c>
       <c r="G119" t="n">
         <v>0.005096823167780963</v>
@@ -3143,16 +3131,16 @@
         <v>138911</v>
       </c>
       <c r="C120" t="n">
-        <v>-0.01851704812606727</v>
+        <v>0.01950616924990211</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.01761864721830234</v>
+        <v>0.02219262898089937</v>
       </c>
       <c r="E120" t="n">
-        <v>0.02131210313125169</v>
+        <v>0.004558416248778174</v>
       </c>
       <c r="F120" t="n">
-        <v>-0.02176957851340472</v>
+        <v>-0.02219262898089937</v>
       </c>
       <c r="G120" t="n">
         <v>0.04285232058648803</v>
@@ -3166,16 +3154,16 @@
         <v>138912</v>
       </c>
       <c r="C121" t="n">
-        <v>0.02214119894823846</v>
+        <v>-0.04117869410501721</v>
       </c>
       <c r="D121" t="n">
-        <v>0.02145756166793183</v>
+        <v>-0.02693157386764494</v>
       </c>
       <c r="E121" t="n">
-        <v>0.03885212049015162</v>
+        <v>0.0056611514026845</v>
       </c>
       <c r="F121" t="n">
-        <v>-0.06516012407285446</v>
+        <v>0.02693157386764494</v>
       </c>
       <c r="G121" t="n">
         <v>0.03174803191490287</v>
@@ -3189,16 +3177,16 @@
         <v>139001</v>
       </c>
       <c r="C122" t="n">
-        <v>-0.04130248308804534</v>
+        <v>-0.01511738782933907</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.02972455294261178</v>
+        <v>0.02133075504097134</v>
       </c>
       <c r="E122" t="n">
-        <v>0.03611336540635384</v>
+        <v>0.004575762070239721</v>
       </c>
       <c r="F122" t="n">
-        <v>-0.05292992802981932</v>
+        <v>-0.02133075504097134</v>
       </c>
       <c r="G122" t="n">
         <v>0.001783244164078934</v>
@@ -3212,16 +3200,16 @@
         <v>139002</v>
       </c>
       <c r="C123" t="n">
-        <v>-0.01853698692701465</v>
+        <v>0.02752570386308202</v>
       </c>
       <c r="D123" t="n">
-        <v>0.02391736192790893</v>
+        <v>0.02298522081204854</v>
       </c>
       <c r="E123" t="n">
-        <v>0.004676087566159261</v>
+        <v>-0.003115160051007617</v>
       </c>
       <c r="F123" t="n">
-        <v>-0.02964094704880093</v>
+        <v>-0.02298522081204854</v>
       </c>
       <c r="G123" t="n">
         <v>0.005714514054997975</v>
@@ -3235,16 +3223,16 @@
         <v>139003</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0225535410450335</v>
+        <v>0.02144303414743658</v>
       </c>
       <c r="D124" t="n">
-        <v>0.02950488223068809</v>
+        <v>0.003803282582291572</v>
       </c>
       <c r="E124" t="n">
-        <v>0.03171743080335995</v>
+        <v>-0.01023015434805834</v>
       </c>
       <c r="F124" t="n">
-        <v>-0.05894090301212655</v>
+        <v>-0.003803282582291572</v>
       </c>
       <c r="G124" t="n">
         <v>-0.02265005821399778</v>
@@ -3258,16 +3246,16 @@
         <v>139004</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0471105682910008</v>
+        <v>0.01154083712670297</v>
       </c>
       <c r="D125" t="n">
-        <v>0.006088142012499138</v>
+        <v>0.01765913641336464</v>
       </c>
       <c r="E125" t="n">
-        <v>0.0132658365548179</v>
+        <v>0.0256803034809403</v>
       </c>
       <c r="F125" t="n">
-        <v>-0.03530292485158915</v>
+        <v>-0.01765913641336464</v>
       </c>
       <c r="G125" t="n">
         <v>0.02406516662159526</v>
@@ -3281,16 +3269,16 @@
         <v>139005</v>
       </c>
       <c r="C126" t="n">
-        <v>0.02983535998184198</v>
+        <v>0.03352918872685856</v>
       </c>
       <c r="D126" t="n">
-        <v>0.09556950151079829</v>
+        <v>0.03785254157175436</v>
       </c>
       <c r="E126" t="n">
-        <v>0.06939579646253284</v>
+        <v>0.02500490415145348</v>
       </c>
       <c r="F126" t="n">
-        <v>-0.09556950151079829</v>
+        <v>-0.03785254157175436</v>
       </c>
       <c r="G126" t="n">
         <v>0.01924389711663721</v>
@@ -3304,16 +3292,16 @@
         <v>139006</v>
       </c>
       <c r="C127" t="n">
-        <v>0.007951389364195344</v>
+        <v>0.03445205152649713</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0220701489412564</v>
+        <v>0.001522728226848732</v>
       </c>
       <c r="E127" t="n">
-        <v>0.02115493750199612</v>
+        <v>0.00666261551699453</v>
       </c>
       <c r="F127" t="n">
-        <v>-0.04116267497966974</v>
+        <v>-0.001522728226848732</v>
       </c>
       <c r="G127" t="n">
         <v>-0.008161138451292769</v>
@@ -3327,16 +3315,16 @@
         <v>139007</v>
       </c>
       <c r="C128" t="n">
-        <v>0.02332286810847227</v>
+        <v>0.03994846463840421</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.002103188210521387</v>
+        <v>0.07299178295940469</v>
       </c>
       <c r="E128" t="n">
-        <v>0.01300821700773456</v>
+        <v>0.04425570850809678</v>
       </c>
       <c r="F128" t="n">
-        <v>-0.01844977147188449</v>
+        <v>-0.07299178295940469</v>
       </c>
       <c r="G128" t="n">
         <v>0.07688551937136896</v>
@@ -3350,16 +3338,16 @@
         <v>139008</v>
       </c>
       <c r="C129" t="n">
-        <v>0.003465871638982695</v>
+        <v>0.04783657001378912</v>
       </c>
       <c r="D129" t="n">
-        <v>0.04500628878362619</v>
+        <v>0.03987223550687653</v>
       </c>
       <c r="E129" t="n">
-        <v>0.0218954318046172</v>
+        <v>0.03648128707150267</v>
       </c>
       <c r="F129" t="n">
-        <v>-0.07843694444458996</v>
+        <v>-0.03987223550687653</v>
       </c>
       <c r="G129" t="n">
         <v>0.02661286806645019</v>
@@ -3373,16 +3361,16 @@
         <v>139009</v>
       </c>
       <c r="C130" t="n">
-        <v>0.02101677253380332</v>
+        <v>-0.02882275025537566</v>
       </c>
       <c r="D130" t="n">
-        <v>0.03354417303837214</v>
+        <v>0.00820049257816358</v>
       </c>
       <c r="E130" t="n">
-        <v>0.05006681746765161</v>
+        <v>-0.001015244146187755</v>
       </c>
       <c r="F130" t="n">
-        <v>-0.07442261483018851</v>
+        <v>-0.00820049257816358</v>
       </c>
       <c r="G130" t="n">
         <v>-0.004992640937380447</v>
@@ -3396,16 +3384,16 @@
         <v>139010</v>
       </c>
       <c r="C131" t="n">
-        <v>-0.04202684886671809</v>
+        <v>-0.01059890810367818</v>
       </c>
       <c r="D131" t="n">
-        <v>0.002911166431695669</v>
+        <v>0.0411283331397639</v>
       </c>
       <c r="E131" t="n">
-        <v>-0.005643846260203906</v>
+        <v>0.01228399957639694</v>
       </c>
       <c r="F131" t="n">
-        <v>-0.004642506218731645</v>
+        <v>-0.0411283331397639</v>
       </c>
       <c r="G131" t="n">
         <v>0.07791409605847566</v>
@@ -3419,16 +3407,16 @@
         <v>139011</v>
       </c>
       <c r="C132" t="n">
-        <v>-0.01610463918310612</v>
+        <v>-0.009234295931708714</v>
       </c>
       <c r="D132" t="n">
-        <v>0.03700969869259278</v>
+        <v>-0.07081237749332614</v>
       </c>
       <c r="E132" t="n">
-        <v>0.04358181271423914</v>
+        <v>-0.04893581428891677</v>
       </c>
       <c r="F132" t="n">
-        <v>-0.1007881602409027</v>
+        <v>0.07081237749332614</v>
       </c>
       <c r="G132" t="n">
         <v>-0.04313434518318422</v>
@@ -3442,16 +3430,16 @@
         <v>139012</v>
       </c>
       <c r="C133" t="n">
-        <v>-0.01834864912787357</v>
+        <v>-0.003074734082372136</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.08078560102197738</v>
+        <v>0.01830784442010252</v>
       </c>
       <c r="E133" t="n">
-        <v>-0.02326529371926851</v>
+        <v>0.000296385541589902</v>
       </c>
       <c r="F133" t="n">
-        <v>0.02733049924194993</v>
+        <v>-0.01830784442010252</v>
       </c>
       <c r="G133" t="n">
         <v>-0.02568639136727376</v>
@@ -3465,16 +3453,16 @@
         <v>139101</v>
       </c>
       <c r="C134" t="n">
-        <v>-0.00993972857457729</v>
+        <v>0.01642995780618676</v>
       </c>
       <c r="D134" t="n">
-        <v>0.02024196440559614</v>
+        <v>-0.01192593674326418</v>
       </c>
       <c r="E134" t="n">
-        <v>0.003516689771134012</v>
+        <v>0.01640884316185541</v>
       </c>
       <c r="F134" t="n">
-        <v>-0.03135262696824549</v>
+        <v>0.01192593674326418</v>
       </c>
       <c r="G134" t="n">
         <v>-0.02325360453612745</v>
@@ -3488,16 +3476,16 @@
         <v>139102</v>
       </c>
       <c r="C135" t="n">
-        <v>0.01845174396123363</v>
+        <v>0.01203683195250186</v>
       </c>
       <c r="D135" t="n">
-        <v>-0.02025669872095165</v>
+        <v>0.00634924356705447</v>
       </c>
       <c r="E135" t="n">
-        <v>0.01036117995246891</v>
+        <v>-0.001171897804128297</v>
       </c>
       <c r="F135" t="n">
-        <v>0.0002688083322744429</v>
+        <v>-0.00634924356705447</v>
       </c>
       <c r="G135" t="n">
         <v>0.004602052811674626</v>
@@ -3511,16 +3499,16 @@
         <v>139103</v>
       </c>
       <c r="C136" t="n">
-        <v>0.003845923478393304</v>
+        <v>-0.003486693072358656</v>
       </c>
       <c r="D136" t="n">
-        <v>0.007979969094550052</v>
+        <v>0.0003414076542524735</v>
       </c>
       <c r="E136" t="n">
-        <v>-0.00723342827738592</v>
+        <v>0.0002209661406925405</v>
       </c>
       <c r="F136" t="n">
-        <v>0.003246946446330883</v>
+        <v>-0.0003414076542524735</v>
       </c>
       <c r="G136" t="n">
         <v>-0.01661505722142071</v>
@@ -3534,16 +3522,16 @@
         <v>139104</v>
       </c>
       <c r="C137" t="n">
-        <v>-0.01440672443434443</v>
+        <v>0.06396257240111065</v>
       </c>
       <c r="D137" t="n">
-        <v>-0.001536246231097816</v>
+        <v>0.03117497961040732</v>
       </c>
       <c r="E137" t="n">
-        <v>0.001311364472182483</v>
+        <v>0.03643389481616884</v>
       </c>
       <c r="F137" t="n">
-        <v>-0.007043843962156952</v>
+        <v>-0.03117497961040732</v>
       </c>
       <c r="G137" t="n">
         <v>0.03109899819456918</v>
@@ -3557,16 +3545,16 @@
         <v>139105</v>
       </c>
       <c r="C138" t="n">
-        <v>0.06031325773091441</v>
+        <v>0.009581549814316234</v>
       </c>
       <c r="D138" t="n">
-        <v>0.07291907232810819</v>
+        <v>0.06048665610053428</v>
       </c>
       <c r="E138" t="n">
-        <v>0.06482164677807434</v>
+        <v>0.05232831638354721</v>
       </c>
       <c r="F138" t="n">
-        <v>-0.07291907232810819</v>
+        <v>-0.06048665610053428</v>
       </c>
       <c r="G138" t="n">
         <v>0.0143101378682397</v>
@@ -3580,16 +3568,16 @@
         <v>139106</v>
       </c>
       <c r="C139" t="n">
-        <v>-0.02450625525619926</v>
+        <v>0.003584652702450161</v>
       </c>
       <c r="D139" t="n">
-        <v>0.04542463453133</v>
+        <v>0.02868118888581411</v>
       </c>
       <c r="E139" t="n">
-        <v>0.02068752894798848</v>
+        <v>0.01743306482389348</v>
       </c>
       <c r="F139" t="n">
-        <v>-0.07663867423818427</v>
+        <v>-0.02868118888581411</v>
       </c>
       <c r="G139" t="n">
         <v>0.03416210518384236</v>
@@ -3603,16 +3591,16 @@
         <v>139107</v>
       </c>
       <c r="C140" t="n">
-        <v>-0.016454818554266</v>
+        <v>0.03528845882163106</v>
       </c>
       <c r="D140" t="n">
-        <v>0.02918933643745411</v>
+        <v>5.481446577442275e-05</v>
       </c>
       <c r="E140" t="n">
-        <v>0.06034897763263768</v>
+        <v>-0.02612551393958496</v>
       </c>
       <c r="F140" t="n">
-        <v>-0.09820158811936887</v>
+        <v>-5.481446577442275e-05</v>
       </c>
       <c r="G140" t="n">
         <v>0.0595724146754885</v>
@@ -3626,16 +3614,16 @@
         <v>139108</v>
       </c>
       <c r="C141" t="n">
-        <v>0.03563887452848371</v>
+        <v>-0.04211477581296999</v>
       </c>
       <c r="D141" t="n">
-        <v>0.003034396194902908</v>
+        <v>-0.01144498410107761</v>
       </c>
       <c r="E141" t="n">
-        <v>0.01906446046744255</v>
+        <v>-0.02119801397479311</v>
       </c>
       <c r="F141" t="n">
-        <v>-0.06500381648472517</v>
+        <v>0.01144498410107761</v>
       </c>
       <c r="G141" t="n">
         <v>0.02998663271047827</v>
@@ -3649,16 +3637,16 @@
         <v>139109</v>
       </c>
       <c r="C142" t="n">
-        <v>-0.02024886541614184</v>
+        <v>-0.0133871848347234</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.02765336104208407</v>
+        <v>0.05069850466114487</v>
       </c>
       <c r="E142" t="n">
-        <v>-0.01103144856843398</v>
+        <v>0.02121843192546329</v>
       </c>
       <c r="F142" t="n">
-        <v>-0.03519784989116564</v>
+        <v>-0.05069850466114487</v>
       </c>
       <c r="G142" t="n">
         <v>0.03704349143909379</v>
@@ -3672,16 +3660,16 @@
         <v>139110</v>
       </c>
       <c r="C143" t="n">
-        <v>-0.01488531162571044</v>
+        <v>0.05722686166500113</v>
       </c>
       <c r="D143" t="n">
-        <v>0.04146640214388923</v>
+        <v>0.03142108418232872</v>
       </c>
       <c r="E143" t="n">
-        <v>0.03767465190345193</v>
+        <v>0.03857661659313594</v>
       </c>
       <c r="F143" t="n">
-        <v>-0.08495773498467975</v>
+        <v>-0.03142108418232872</v>
       </c>
       <c r="G143" t="n">
         <v>0.05925805817312227</v>
@@ -3695,16 +3683,16 @@
         <v>139111</v>
       </c>
       <c r="C144" t="n">
-        <v>-0.01628682369360195</v>
+        <v>-0.01998672051301734</v>
       </c>
       <c r="D144" t="n">
-        <v>0.01310381984678676</v>
+        <v>-0.03318674755366467</v>
       </c>
       <c r="E144" t="n">
-        <v>0.01912789339100334</v>
+        <v>-0.01086614888958775</v>
       </c>
       <c r="F144" t="n">
-        <v>-0.05385179707078148</v>
+        <v>0.03318674755366467</v>
       </c>
       <c r="G144" t="n">
         <v>-0.03128810974899678</v>
@@ -3718,16 +3706,16 @@
         <v>139112</v>
       </c>
       <c r="C145" t="n">
-        <v>-0.02654877028123545</v>
+        <v>0.01602571910270024</v>
       </c>
       <c r="D145" t="n">
-        <v>-0.04225407583276188</v>
+        <v>-0.02892930192904189</v>
       </c>
       <c r="E145" t="n">
-        <v>0.01718630470343122</v>
+        <v>0.00371045634906203</v>
       </c>
       <c r="F145" t="n">
-        <v>-0.01339647145547777</v>
+        <v>0.02892930192904189</v>
       </c>
       <c r="G145" t="n">
         <v>0.06427414143489524</v>
@@ -3741,16 +3729,16 @@
         <v>139201</v>
       </c>
       <c r="C146" t="n">
-        <v>0.01410435549792076</v>
+        <v>0.02277947066204795</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.02154216298679408</v>
+        <v>-0.009832447862169663</v>
       </c>
       <c r="E146" t="n">
-        <v>0.05138843162091147</v>
+        <v>-0.01634201747721253</v>
       </c>
       <c r="F146" t="n">
-        <v>-0.04559457132356087</v>
+        <v>0.009832447862169663</v>
       </c>
       <c r="G146" t="n">
         <v>0.05624964515731956</v>
@@ -3764,16 +3752,16 @@
         <v>139202</v>
       </c>
       <c r="C147" t="n">
-        <v>0.009963191120893111</v>
+        <v>0.003065103584703188</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.005016770195038711</v>
+        <v>-0.04897803411511581</v>
       </c>
       <c r="E147" t="n">
-        <v>0.04998141998493164</v>
+        <v>-0.0006059709447206463</v>
       </c>
       <c r="F147" t="n">
-        <v>-0.07980714687558024</v>
+        <v>0.04897803411511581</v>
       </c>
       <c r="G147" t="n">
         <v>0.05168083271066942</v>
@@ -3787,16 +3775,16 @@
         <v>139203</v>
       </c>
       <c r="C148" t="n">
-        <v>0.003467441935931052</v>
+        <v>0.01450968782570289</v>
       </c>
       <c r="D148" t="n">
-        <v>-0.05252483199418673</v>
+        <v>-0.01789960840246019</v>
       </c>
       <c r="E148" t="n">
-        <v>0.04362777508756402</v>
+        <v>0.003394898378741074</v>
       </c>
       <c r="F148" t="n">
-        <v>-0.05823857414169892</v>
+        <v>0.01789960840246019</v>
       </c>
       <c r="G148" t="n">
         <v>-0.05729583589767012</v>
@@ -3810,16 +3798,16 @@
         <v>139204</v>
       </c>
       <c r="C149" t="n">
-        <v>0.009040761588083202</v>
+        <v>0.0922226183658464</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.03439823004534942</v>
+        <v>-0.02424725631999297</v>
       </c>
       <c r="E149" t="n">
-        <v>0.003028319031471854</v>
+        <v>-0.009341634139380231</v>
       </c>
       <c r="F149" t="n">
-        <v>-0.02923953000944504</v>
+        <v>0.02424725631999297</v>
       </c>
       <c r="G149" t="n">
         <v>0.0002200923946768241</v>
@@ -3833,16 +3821,16 @@
         <v>139205</v>
       </c>
       <c r="C150" t="n">
-        <v>0.02606509901312484</v>
+        <v>-3.675612049935245e-05</v>
       </c>
       <c r="D150" t="n">
-        <v>0.01367335398911917</v>
+        <v>-0.02417365512786299</v>
       </c>
       <c r="E150" t="n">
-        <v>-0.003137085290001299</v>
+        <v>-0.0317365324173569</v>
       </c>
       <c r="F150" t="n">
-        <v>-0.01367335398911917</v>
+        <v>0.02417365512786299</v>
       </c>
       <c r="G150" t="n">
         <v>-0.01291927979992678</v>
@@ -3856,16 +3844,16 @@
         <v>139206</v>
       </c>
       <c r="C151" t="n">
-        <v>0.0004076736833948652</v>
+        <v>-0.01342512220959485</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.02308788999876087</v>
+        <v>-0.009025112877179914</v>
       </c>
       <c r="E151" t="n">
-        <v>0.001336504595343516</v>
+        <v>-0.02471203389373997</v>
       </c>
       <c r="F151" t="n">
-        <v>-0.01929290128978523</v>
+        <v>0.009025112877179914</v>
       </c>
       <c r="G151" t="n">
         <v>0.02793021498028234</v>
@@ -3879,16 +3867,16 @@
         <v>139207</v>
       </c>
       <c r="C152" t="n">
-        <v>-0.03612814991976403</v>
+        <v>0.008991706654146059</v>
       </c>
       <c r="D152" t="n">
-        <v>-0.003216419727863976</v>
+        <v>-0.08029472984289346</v>
       </c>
       <c r="E152" t="n">
-        <v>0.02754052042199282</v>
+        <v>-0.0363603621676713</v>
       </c>
       <c r="F152" t="n">
-        <v>-0.09178832616415689</v>
+        <v>0.08029472984289346</v>
       </c>
       <c r="G152" t="n">
         <v>-0.001761689469330613</v>
@@ -3902,16 +3890,16 @@
         <v>139208</v>
       </c>
       <c r="C153" t="n">
-        <v>-0.0002932924992531116</v>
+        <v>0.07559868714195345</v>
       </c>
       <c r="D153" t="n">
-        <v>-0.08050227687378049</v>
+        <v>-0.168835168261827</v>
       </c>
       <c r="E153" t="n">
-        <v>0.02788507729281081</v>
+        <v>-0.07764000464132004</v>
       </c>
       <c r="F153" t="n">
-        <v>-0.05513405371473332</v>
+        <v>0.168835168261827</v>
       </c>
       <c r="G153" t="n">
         <v>-0.07519170422472407</v>
@@ -3925,16 +3913,16 @@
         <v>139209</v>
       </c>
       <c r="C154" t="n">
-        <v>0.04523820173159408</v>
+        <v>0.1280347675241161</v>
       </c>
       <c r="D154" t="n">
-        <v>-0.1681125734037666</v>
+        <v>-0.03467803790268551</v>
       </c>
       <c r="E154" t="n">
-        <v>0.002734176324836912</v>
+        <v>-0.06684573420703445</v>
       </c>
       <c r="F154" t="n">
-        <v>0.06015088000797369</v>
+        <v>0.03467803790268551</v>
       </c>
       <c r="G154" t="n">
         <v>-0.01819572423527074</v>
@@ -3948,16 +3936,16 @@
         <v>139210</v>
       </c>
       <c r="C155" t="n">
-        <v>0.1136769595542309</v>
+        <v>-0.008342705827424898</v>
       </c>
       <c r="D155" t="n">
-        <v>-0.08758160483576957</v>
+        <v>-0.0009914864283122188</v>
       </c>
       <c r="E155" t="n">
-        <v>-0.009522909699357797</v>
+        <v>-0.007768264484646487</v>
       </c>
       <c r="F155" t="n">
-        <v>-0.04013234372418686</v>
+        <v>0.0009914864283122188</v>
       </c>
       <c r="G155" t="n">
         <v>-0.08590185764035663</v>
@@ -3971,16 +3959,16 @@
         <v>139211</v>
       </c>
       <c r="C156" t="n">
-        <v>-0.02202923349958044</v>
+        <v>-0.022906559712732</v>
       </c>
       <c r="D156" t="n">
-        <v>-0.0002566878425447477</v>
+        <v>-0.002433894331116293</v>
       </c>
       <c r="E156" t="n">
-        <v>-0.02247941586614011</v>
+        <v>0.001999327077010841</v>
       </c>
       <c r="F156" t="n">
-        <v>0.006768251032761331</v>
+        <v>0.002433894331116293</v>
       </c>
       <c r="G156" t="n">
         <v>0.002464246927833372</v>
@@ -3994,16 +3982,16 @@
         <v>139212</v>
       </c>
       <c r="C157" t="n">
-        <v>-0.007287358540509751</v>
+        <v>0.02118681840348481</v>
       </c>
       <c r="D157" t="n">
-        <v>0.001077177360184345</v>
+        <v>0.01145537263414047</v>
       </c>
       <c r="E157" t="n">
-        <v>0.06305313887624425</v>
+        <v>-0.0001472739448980659</v>
       </c>
       <c r="F157" t="n">
-        <v>-0.05601131931959791</v>
+        <v>-0.01145537263414047</v>
       </c>
       <c r="G157" t="n">
         <v>-0.00515233653102308</v>
@@ -4017,16 +4005,16 @@
         <v>139301</v>
       </c>
       <c r="C158" t="n">
-        <v>0.02202378146437501</v>
+        <v>-0.03615287030494755</v>
       </c>
       <c r="D158" t="n">
-        <v>0.01352784905666815</v>
+        <v>-0.04807819616223735</v>
       </c>
       <c r="E158" t="n">
-        <v>0.03949716465740325</v>
+        <v>-0.03922384253739129</v>
       </c>
       <c r="F158" t="n">
-        <v>-0.06489937768335211</v>
+        <v>0.04807819616223735</v>
       </c>
       <c r="G158" t="n">
         <v>-0.01167309613465312</v>
@@ -4040,16 +4028,16 @@
         <v>139302</v>
       </c>
       <c r="C159" t="n">
-        <v>-0.04352168857028606</v>
+        <v>0.02974348628283731</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.04734083197282813</v>
+        <v>0.003617148568134786</v>
       </c>
       <c r="E159" t="n">
-        <v>-0.0004040955219238515</v>
+        <v>-0.00662813587677305</v>
       </c>
       <c r="F159" t="n">
-        <v>-0.003322163017082404</v>
+        <v>-0.003617148568134786</v>
       </c>
       <c r="G159" t="n">
         <v>-0.008919800446101862</v>
@@ -4063,16 +4051,16 @@
         <v>139303</v>
       </c>
       <c r="C160" t="n">
-        <v>0.0009037058200923343</v>
+        <v>-0.008571708940546791</v>
       </c>
       <c r="D160" t="n">
-        <v>0.005649285018246103</v>
+        <v>-0.05025675326153255</v>
       </c>
       <c r="E160" t="n">
-        <v>0.03716121603582699</v>
+        <v>-0.03026822818025435</v>
       </c>
       <c r="F160" t="n">
-        <v>-0.0721951593639736</v>
+        <v>0.05025675326153255</v>
       </c>
       <c r="G160" t="n">
         <v>-0.01984823634323574</v>
@@ -4086,16 +4074,16 @@
         <v>139304</v>
       </c>
       <c r="C161" t="n">
-        <v>-0.02144863922830141</v>
+        <v>0.06513432210083984</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.04624248261714987</v>
+        <v>0.02553951954476601</v>
       </c>
       <c r="E161" t="n">
-        <v>-0.02778258151559641</v>
+        <v>0.01795437643412257</v>
       </c>
       <c r="F161" t="n">
-        <v>0.01695036542211692</v>
+        <v>-0.02553951954476601</v>
       </c>
       <c r="G161" t="n">
         <v>-0.001142205589824452</v>
@@ -4109,16 +4097,16 @@
         <v>139305</v>
       </c>
       <c r="C162" t="n">
-        <v>0.04460341706795504</v>
+        <v>0.04667987342417553</v>
       </c>
       <c r="D162" t="n">
-        <v>0.02801687405510567</v>
+        <v>0.02974294730569976</v>
       </c>
       <c r="E162" t="n">
-        <v>0.005536478889711791</v>
+        <v>0.002093406262511921</v>
       </c>
       <c r="F162" t="n">
-        <v>-0.02801687405510567</v>
+        <v>-0.02974294730569976</v>
       </c>
       <c r="G162" t="n">
         <v>0.009369270687239114</v>
@@ -4132,16 +4120,16 @@
         <v>139306</v>
       </c>
       <c r="C163" t="n">
-        <v>0.02209664967017413</v>
+        <v>0.03490682167131387</v>
       </c>
       <c r="D163" t="n">
-        <v>0.03312750876104088</v>
+        <v>-0.07032325316964032</v>
       </c>
       <c r="E163" t="n">
-        <v>0.05154915379328303</v>
+        <v>-0.04218012837973432</v>
       </c>
       <c r="F163" t="n">
-        <v>-0.09136488410524884</v>
+        <v>0.07032325316964032</v>
       </c>
       <c r="G163" t="n">
         <v>0.0151330491411566</v>
@@ -4155,16 +4143,16 @@
         <v>139307</v>
       </c>
       <c r="C164" t="n">
-        <v>0.02607736949976373</v>
+        <v>0.0002487617766761055</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.06915772762071327</v>
+        <v>-0.08346228064608605</v>
       </c>
       <c r="E164" t="n">
-        <v>0.001864970771395177</v>
+        <v>-0.04633986816569623</v>
       </c>
       <c r="F164" t="n">
-        <v>0.0123311108202025</v>
+        <v>0.08346228064608605</v>
       </c>
       <c r="G164" t="n">
         <v>0.01730355245899962</v>
@@ -4178,16 +4166,16 @@
         <v>139308</v>
       </c>
       <c r="C165" t="n">
-        <v>-0.02216281298930557</v>
+        <v>-0.02489983145205078</v>
       </c>
       <c r="D165" t="n">
-        <v>-0.08352730141286514</v>
+        <v>0.01698691222165367</v>
       </c>
       <c r="E165" t="n">
-        <v>-0.01947749764377656</v>
+        <v>-0.007487508549227917</v>
       </c>
       <c r="F165" t="n">
-        <v>0.02936765740031909</v>
+        <v>-0.01698691222165367</v>
       </c>
       <c r="G165" t="n">
         <v>0.02194418940606064</v>
@@ -4201,16 +4189,16 @@
         <v>139309</v>
       </c>
       <c r="C166" t="n">
-        <v>-0.03423240489156185</v>
+        <v>-0.004568674069850537</v>
       </c>
       <c r="D166" t="n">
-        <v>0.01680626734563484</v>
+        <v>0.02031041920586821</v>
       </c>
       <c r="E166" t="n">
-        <v>0.01539260487313614</v>
+        <v>0.003876440057376529</v>
       </c>
       <c r="F166" t="n">
-        <v>-0.06264406761319881</v>
+        <v>-0.02031041920586821</v>
       </c>
       <c r="G166" t="n">
         <v>0.005617423934966073</v>
@@ -4224,16 +4212,16 @@
         <v>139310</v>
       </c>
       <c r="C167" t="n">
-        <v>-0.005390115097217013</v>
+        <v>-0.00369513458557671</v>
       </c>
       <c r="D167" t="n">
-        <v>0.01834195196437213</v>
+        <v>-0.003021630541465382</v>
       </c>
       <c r="E167" t="n">
-        <v>0.05734193856006631</v>
+        <v>0.001769457659435229</v>
       </c>
       <c r="F167" t="n">
-        <v>-0.08020957893902547</v>
+        <v>0.003021630541465382</v>
       </c>
       <c r="G167" t="n">
         <v>0.0006224995826938327</v>
@@ -4247,16 +4235,16 @@
         <v>139311</v>
       </c>
       <c r="C168" t="n">
-        <v>-0.01172328273707803</v>
+        <v>-0.02906409823063262</v>
       </c>
       <c r="D168" t="n">
-        <v>-0.005694046642286846</v>
+        <v>-0.03978641329588471</v>
       </c>
       <c r="E168" t="n">
-        <v>-0.0015541228001181</v>
+        <v>-0.01593681232004744</v>
       </c>
       <c r="F168" t="n">
-        <v>-0.01005963249857264</v>
+        <v>0.03978641329588471</v>
       </c>
       <c r="G168" t="n">
         <v>0.006315946169312105</v>
@@ -4270,16 +4258,16 @@
         <v>139312</v>
       </c>
       <c r="C169" t="n">
-        <v>-0.03967812476667943</v>
+        <v>-0.02290463413902023</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.03650976096567172</v>
+        <v>-0.008884702701528538</v>
       </c>
       <c r="E169" t="n">
-        <v>0.0004134265024131559</v>
+        <v>2.268183611442431e-05</v>
       </c>
       <c r="F169" t="n">
-        <v>0.00730197883356167</v>
+        <v>0.008884702701528538</v>
       </c>
       <c r="G169" t="n">
         <v>-0.02562868283640429</v>
@@ -4293,16 +4281,16 @@
         <v>139401</v>
       </c>
       <c r="C170" t="n">
-        <v>-0.03682279336041758</v>
+        <v>0.02882568530390797</v>
       </c>
       <c r="D170" t="n">
-        <v>0.004888433694767498</v>
+        <v>0.05614400155719305</v>
       </c>
       <c r="E170" t="n">
-        <v>0.005074480139855647</v>
+        <v>0.03449877156369219</v>
       </c>
       <c r="F170" t="n">
-        <v>-0.004710479220508046</v>
+        <v>-0.05614400155719305</v>
       </c>
       <c r="G170" t="n">
         <v>0.003593833563587754</v>
@@ -4316,16 +4304,16 @@
         <v>139402</v>
       </c>
       <c r="C171" t="n">
-        <v>0.02936412623904289</v>
+        <v>-0.02082302373024196</v>
       </c>
       <c r="D171" t="n">
-        <v>0.05365995579444784</v>
+        <v>-0.01341709235694029</v>
       </c>
       <c r="E171" t="n">
-        <v>0.04057326722716233</v>
+        <v>-0.009757091266183307</v>
       </c>
       <c r="F171" t="n">
-        <v>-0.06756824746210546</v>
+        <v>0.01341709235694029</v>
       </c>
       <c r="G171" t="n">
         <v>0.01097364868742563</v>
@@ -4339,16 +4327,16 @@
         <v>139403</v>
       </c>
       <c r="C172" t="n">
-        <v>-0.02295563630733247</v>
+        <v>-0.008288229738405699</v>
       </c>
       <c r="D172" t="n">
-        <v>-0.01784720279815507</v>
+        <v>-0.01492745171333016</v>
       </c>
       <c r="E172" t="n">
-        <v>0.01167449153378006</v>
+        <v>-0.01371909854918076</v>
       </c>
       <c r="F172" t="n">
-        <v>-0.02295019073906655</v>
+        <v>0.01492745171333016</v>
       </c>
       <c r="G172" t="n">
         <v>0.01400900389554197</v>
@@ -4362,16 +4350,16 @@
         <v>139404</v>
       </c>
       <c r="C173" t="n">
-        <v>-0.02068582902298847</v>
+        <v>0.01790168357740616</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.01438414904982662</v>
+        <v>-0.01881446713108235</v>
       </c>
       <c r="E173" t="n">
-        <v>0.002354984373504787</v>
+        <v>-0.02238354636951904</v>
       </c>
       <c r="F173" t="n">
-        <v>-0.008247164031253237</v>
+        <v>0.01881446713108235</v>
       </c>
       <c r="G173" t="n">
         <v>0.008620085598247722</v>
@@ -4385,16 +4373,16 @@
         <v>139405</v>
       </c>
       <c r="C174" t="n">
-        <v>0.009248639748875569</v>
+        <v>0.01493166910231896</v>
       </c>
       <c r="D174" t="n">
-        <v>0.05002351058200327</v>
+        <v>0.02429297629073911</v>
       </c>
       <c r="E174" t="n">
-        <v>0.01864408448383566</v>
+        <v>0.01753416404813055</v>
       </c>
       <c r="F174" t="n">
-        <v>-0.05002351058200327</v>
+        <v>-0.02429297629073911</v>
       </c>
       <c r="G174" t="n">
         <v>-0.01405753038625318</v>
@@ -4408,16 +4396,16 @@
         <v>139406</v>
       </c>
       <c r="C175" t="n">
-        <v>0.005627683378597303</v>
+        <v>-0.01300480542279197</v>
       </c>
       <c r="D175" t="n">
-        <v>0.02140148713325273</v>
+        <v>-0.01073322613995255</v>
       </c>
       <c r="E175" t="n">
-        <v>0.03803437358997869</v>
+        <v>-0.00524505621120858</v>
       </c>
       <c r="F175" t="n">
-        <v>-0.05214918926157279</v>
+        <v>0.01073322613995255</v>
       </c>
       <c r="G175" t="n">
         <v>-0.01041189052548688</v>
@@ -4431,16 +4419,16 @@
         <v>139407</v>
       </c>
       <c r="C176" t="n">
-        <v>-0.01961891802031629</v>
+        <v>0.03441419139362015</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.01101738290976271</v>
+        <v>0.01543350961620734</v>
       </c>
       <c r="E176" t="n">
-        <v>0.01135462367215171</v>
+        <v>0.01109580588563946</v>
       </c>
       <c r="F176" t="n">
-        <v>-0.01100990411201153</v>
+        <v>-0.01543350961620734</v>
       </c>
       <c r="G176" t="n">
         <v>-0.00505636809478326</v>
@@ -4454,16 +4442,16 @@
         <v>139408</v>
       </c>
       <c r="C177" t="n">
-        <v>0.03142492545820853</v>
+        <v>-0.004711443453465448</v>
       </c>
       <c r="D177" t="n">
-        <v>0.01960738160268537</v>
+        <v>0.03152137632345374</v>
       </c>
       <c r="E177" t="n">
-        <v>0.03603425072217595</v>
+        <v>0.01936112457700031</v>
       </c>
       <c r="F177" t="n">
-        <v>-0.04725783432024569</v>
+        <v>-0.03152137632345374</v>
       </c>
       <c r="G177" t="n">
         <v>0.01809181207272106</v>
@@ -4477,16 +4465,16 @@
         <v>139409</v>
       </c>
       <c r="C178" t="n">
-        <v>-0.01394429920745833</v>
+        <v>0.04969486069535974</v>
       </c>
       <c r="D178" t="n">
-        <v>0.0324300313980724</v>
+        <v>-0.04258585292180658</v>
       </c>
       <c r="E178" t="n">
-        <v>0.04200903667281171</v>
+        <v>-0.01636848991196566</v>
       </c>
       <c r="F178" t="n">
-        <v>-0.05667020330028093</v>
+        <v>0.04258585292180658</v>
       </c>
       <c r="G178" t="n">
         <v>-0.06304426566205747</v>
@@ -4500,16 +4488,16 @@
         <v>139410</v>
       </c>
       <c r="C179" t="n">
-        <v>0.01622313964250939</v>
+        <v>0.001689974422734636</v>
       </c>
       <c r="D179" t="n">
-        <v>-0.0465708963808972</v>
+        <v>-0.05151233378516362</v>
       </c>
       <c r="E179" t="n">
-        <v>0.001803067167186007</v>
+        <v>-0.01497001402548281</v>
       </c>
       <c r="F179" t="n">
-        <v>0.002365458393645853</v>
+        <v>0.05151233378516362</v>
       </c>
       <c r="G179" t="n">
         <v>-0.03023900618593039</v>
@@ -4523,16 +4511,16 @@
         <v>139411</v>
       </c>
       <c r="C180" t="n">
-        <v>-0.03181090426645525</v>
+        <v>-0.03440407145456473</v>
       </c>
       <c r="D180" t="n">
-        <v>-0.05322485259107287</v>
+        <v>-0.007717857629232456</v>
       </c>
       <c r="E180" t="n">
-        <v>0.04586942591984272</v>
+        <v>0.008971635784538905</v>
       </c>
       <c r="F180" t="n">
-        <v>-0.05417925303930129</v>
+        <v>0.007717857629232456</v>
       </c>
       <c r="G180" t="n">
         <v>-0.02003946571139025</v>
@@ -4546,16 +4534,16 @@
         <v>139412</v>
       </c>
       <c r="C181" t="n">
-        <v>-0.04940434040074366</v>
+        <v>0.03177613646091888</v>
       </c>
       <c r="D181" t="n">
-        <v>-0.005909921731436389</v>
+        <v>-0.01860965649094901</v>
       </c>
       <c r="E181" t="n">
-        <v>0.03116259345906613</v>
+        <v>-0.01380469665861538</v>
       </c>
       <c r="F181" t="n">
-        <v>-0.06549770778870943</v>
+        <v>0.01860965649094901</v>
       </c>
       <c r="G181" t="n">
         <v>-0.02395558744896752</v>
@@ -4569,16 +4557,16 @@
         <v>139501</v>
       </c>
       <c r="C182" t="n">
-        <v>0.02387281839276905</v>
+        <v>0.03793215614277275</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.01879286652938121</v>
+        <v>0.01713856488132207</v>
       </c>
       <c r="E182" t="n">
-        <v>0.01625088025090844</v>
+        <v>0.01552221698218333</v>
       </c>
       <c r="F182" t="n">
-        <v>-0.003297916049734936</v>
+        <v>-0.01713856488132207</v>
       </c>
       <c r="G182" t="n">
         <v>-0.005865520846999921</v>
@@ -4592,16 +4580,16 @@
         <v>139502</v>
       </c>
       <c r="C183" t="n">
-        <v>0.02980737459114332</v>
+        <v>0.004832486436744388</v>
       </c>
       <c r="D183" t="n">
-        <v>0.02017587460990274</v>
+        <v>0.03592293228324954</v>
       </c>
       <c r="E183" t="n">
-        <v>0.04169530137225916</v>
+        <v>0.009109547410175202</v>
       </c>
       <c r="F183" t="n">
-        <v>-0.07439436443468476</v>
+        <v>-0.03592293228324954</v>
       </c>
       <c r="G183" t="n">
         <v>0.01065622507040771</v>
@@ -4615,16 +4603,16 @@
         <v>139503</v>
       </c>
       <c r="C184" t="n">
-        <v>-0.01628978369534251</v>
+        <v>-0.001701635948425304</v>
       </c>
       <c r="D184" t="n">
-        <v>0.03713508837184298</v>
+        <v>-0.03874391581870596</v>
       </c>
       <c r="E184" t="n">
-        <v>0.03641367602413414</v>
+        <v>-0.01958180634684129</v>
       </c>
       <c r="F184" t="n">
-        <v>-0.07410120833129639</v>
+        <v>0.03874391581870596</v>
       </c>
       <c r="G184" t="n">
         <v>0.004975515876092976</v>
@@ -4638,16 +4626,16 @@
         <v>139504</v>
       </c>
       <c r="C185" t="n">
-        <v>-0.005577816356398355</v>
+        <v>0.01416830952205135</v>
       </c>
       <c r="D185" t="n">
-        <v>-0.03787857458717105</v>
+        <v>-0.01449155192955953</v>
       </c>
       <c r="E185" t="n">
-        <v>0.012734203845674</v>
+        <v>-0.005144608074101512</v>
       </c>
       <c r="F185" t="n">
-        <v>-0.005023232901329465</v>
+        <v>0.01449155192955953</v>
       </c>
       <c r="G185" t="n">
         <v>0.001372829415415347</v>
@@ -4661,16 +4649,16 @@
         <v>139505</v>
       </c>
       <c r="C186" t="n">
-        <v>-0.001883289341644029</v>
+        <v>0.03150911805928842</v>
       </c>
       <c r="D186" t="n">
-        <v>0.01767709451564949</v>
+        <v>0.02194454567573401</v>
       </c>
       <c r="E186" t="n">
-        <v>0.01621038850398375</v>
+        <v>0.008969641743655662</v>
       </c>
       <c r="F186" t="n">
-        <v>-0.01767709451564949</v>
+        <v>-0.02194454567573401</v>
       </c>
       <c r="G186" t="n">
         <v>0.01536856883108405</v>
@@ -4684,16 +4672,16 @@
         <v>139506</v>
       </c>
       <c r="C187" t="n">
-        <v>0.02370612389929106</v>
+        <v>0.03450294846049509</v>
       </c>
       <c r="D187" t="n">
-        <v>0.02465950476621074</v>
+        <v>-0.01241702974293469</v>
       </c>
       <c r="E187" t="n">
-        <v>0.03513890874461545</v>
+        <v>-0.01607115901356231</v>
       </c>
       <c r="F187" t="n">
-        <v>-0.05937617582526555</v>
+        <v>0.01241702974293469</v>
       </c>
       <c r="G187" t="n">
         <v>0.01598217322406886</v>
@@ -4707,16 +4695,16 @@
         <v>139507</v>
       </c>
       <c r="C188" t="n">
-        <v>0.03307317291351201</v>
+        <v>0.03582666519847539</v>
       </c>
       <c r="D188" t="n">
-        <v>-0.01382428469863552</v>
+        <v>-0.02746181711977114</v>
       </c>
       <c r="E188" t="n">
-        <v>0.005185199062582982</v>
+        <v>-0.01013176587689393</v>
       </c>
       <c r="F188" t="n">
-        <v>-0.01024727034792559</v>
+        <v>0.02746181711977114</v>
       </c>
       <c r="G188" t="n">
         <v>-0.03291337711279323</v>
@@ -4730,16 +4718,16 @@
         <v>139508</v>
       </c>
       <c r="C189" t="n">
-        <v>0.01943624141434824</v>
+        <v>-0.03549989827871344</v>
       </c>
       <c r="D189" t="n">
-        <v>-0.02452649619297325</v>
+        <v>0.01988257883445415</v>
       </c>
       <c r="E189" t="n">
-        <v>0.03369619222680727</v>
+        <v>0.003435250088021584</v>
       </c>
       <c r="F189" t="n">
-        <v>-0.04313844662110057</v>
+        <v>-0.01988257883445415</v>
       </c>
       <c r="G189" t="n">
         <v>-0.03409192475430652</v>
@@ -4753,16 +4741,16 @@
         <v>139509</v>
       </c>
       <c r="C190" t="n">
-        <v>-0.03783437088634582</v>
+        <v>0.02152906589469282</v>
       </c>
       <c r="D190" t="n">
-        <v>0.01907127917427254</v>
+        <v>0.02056388144819453</v>
       </c>
       <c r="E190" t="n">
-        <v>0.01565483700680098</v>
+        <v>0.01613713691312223</v>
       </c>
       <c r="F190" t="n">
-        <v>-0.04949203259802701</v>
+        <v>-0.02056388144819453</v>
       </c>
       <c r="G190" t="n">
         <v>0.01071438027967087</v>
@@ -4776,16 +4764,16 @@
         <v>139510</v>
       </c>
       <c r="C191" t="n">
-        <v>0.01430694154919822</v>
+        <v>0.04339391051497382</v>
       </c>
       <c r="D191" t="n">
-        <v>0.01729935954723323</v>
+        <v>-0.006810240254305999</v>
       </c>
       <c r="E191" t="n">
-        <v>0.04183195939943483</v>
+        <v>-0.0129784311892185</v>
       </c>
       <c r="F191" t="n">
-        <v>-0.06250314131269025</v>
+        <v>0.006810240254305999</v>
       </c>
       <c r="G191" t="n">
         <v>0.01297506465948363</v>
@@ -4799,16 +4787,16 @@
         <v>139511</v>
       </c>
       <c r="C192" t="n">
-        <v>0.03091221976805854</v>
+        <v>0.01089720069638849</v>
       </c>
       <c r="D192" t="n">
-        <v>-0.001890676380825967</v>
+        <v>-0.029515490198496</v>
       </c>
       <c r="E192" t="n">
-        <v>0.0353357810550203</v>
+        <v>-0.02610256226053734</v>
       </c>
       <c r="F192" t="n">
-        <v>-0.05092183928479842</v>
+        <v>0.029515490198496</v>
       </c>
       <c r="G192" t="n">
         <v>0.005133596299973425</v>
@@ -4822,16 +4810,16 @@
         <v>139512</v>
       </c>
       <c r="C193" t="n">
-        <v>-0.00336497577880762</v>
+        <v>0.121017660645723</v>
       </c>
       <c r="D193" t="n">
-        <v>-0.02983409819809118</v>
+        <v>-0.03907057226519861</v>
       </c>
       <c r="E193" t="n">
-        <v>0.0103855335732836</v>
+        <v>-0.04275400736445238</v>
       </c>
       <c r="F193" t="n">
-        <v>-0.02646036244922555</v>
+        <v>0.03907057226519861</v>
       </c>
       <c r="G193" t="n">
         <v>-0.02618392032789381</v>
@@ -4845,16 +4833,16 @@
         <v>139601</v>
       </c>
       <c r="C194" t="n">
-        <v>0.08859817178863165</v>
+        <v>-0.007403549028535336</v>
       </c>
       <c r="D194" t="n">
-        <v>-0.03587358291456708</v>
+        <v>0.0262330980636648</v>
       </c>
       <c r="E194" t="n">
-        <v>-0.01237620522332515</v>
+        <v>0.01302015269574651</v>
       </c>
       <c r="F194" t="n">
-        <v>-0.007318793684998021</v>
+        <v>-0.0262330980636648</v>
       </c>
       <c r="G194" t="n">
         <v>0.01126338034490711</v>
@@ -4868,16 +4856,16 @@
         <v>139602</v>
       </c>
       <c r="C195" t="n">
-        <v>-0.02056057113458357</v>
+        <v>0.0163245557853344</v>
       </c>
       <c r="D195" t="n">
-        <v>0.02488948338864345</v>
+        <v>-0.003729746215513786</v>
       </c>
       <c r="E195" t="n">
-        <v>0.04876243893456166</v>
+        <v>-0.008926815628479572</v>
       </c>
       <c r="F195" t="n">
-        <v>-0.07950836004434766</v>
+        <v>0.003729746215513786</v>
       </c>
       <c r="G195" t="n">
         <v>-0.001208557958328499</v>
@@ -4891,16 +4879,16 @@
         <v>139603</v>
       </c>
       <c r="C196" t="n">
-        <v>0.008140144321263644</v>
+        <v>0.04297747560408727</v>
       </c>
       <c r="D196" t="n">
-        <v>-0.003910723646444569</v>
+        <v>-0.07746134984802891</v>
       </c>
       <c r="E196" t="n">
-        <v>0.0120582450391093</v>
+        <v>-0.05628783426072621</v>
       </c>
       <c r="F196" t="n">
-        <v>-0.02902331729265762</v>
+        <v>0.07746134984802891</v>
       </c>
       <c r="G196" t="n">
         <v>0.04963581631347817</v>
@@ -4914,16 +4902,16 @@
         <v>139604</v>
       </c>
       <c r="C197" t="n">
-        <v>0.02592140107237129</v>
+        <v>-0.01455576794745325</v>
       </c>
       <c r="D197" t="n">
-        <v>-0.07821306735639841</v>
+        <v>-0.002087478453303837</v>
       </c>
       <c r="E197" t="n">
-        <v>0.02367029761707982</v>
+        <v>-0.0008792240871619318</v>
       </c>
       <c r="F197" t="n">
-        <v>-0.03576853177684644</v>
+        <v>0.002087478453303837</v>
       </c>
       <c r="G197" t="n">
         <v>0.02997682552398516</v>
@@ -4937,16 +4925,16 @@
         <v>139605</v>
       </c>
       <c r="C198" t="n">
-        <v>-0.02444610411135675</v>
+        <v>-0.002031025246188591</v>
       </c>
       <c r="D198" t="n">
-        <v>0.04395759647553293</v>
+        <v>-0.03981187863638289</v>
       </c>
       <c r="E198" t="n">
-        <v>0.02187816174918973</v>
+        <v>-0.02528242495358666</v>
       </c>
       <c r="F198" t="n">
-        <v>-0.04395759647553293</v>
+        <v>0.03981187863638289</v>
       </c>
       <c r="G198" t="n">
         <v>-0.02334532691902401</v>
@@ -4960,16 +4948,16 @@
         <v>139606</v>
       </c>
       <c r="C199" t="n">
-        <v>-0.01259625516448493</v>
+        <v>-0.01112191766017224</v>
       </c>
       <c r="D199" t="n">
-        <v>-0.02610968977217476</v>
+        <v>0.01897949059389351</v>
       </c>
       <c r="E199" t="n">
-        <v>0.009319006370104757</v>
+        <v>0.007489685516384695</v>
       </c>
       <c r="F199" t="n">
-        <v>-0.01261755030951838</v>
+        <v>-0.01897949059389351</v>
       </c>
       <c r="G199" t="n">
         <v>0.02410647304245789</v>
@@ -4983,16 +4971,16 @@
         <v>139607</v>
       </c>
       <c r="C200" t="n">
-        <v>-0.02230754038935258</v>
+        <v>-0.01118497314126841</v>
       </c>
       <c r="D200" t="n">
-        <v>0.02190836890776081</v>
+        <v>0.00733615710781492</v>
       </c>
       <c r="E200" t="n">
-        <v>0.0115686760822864</v>
+        <v>0.0003169036929312459</v>
       </c>
       <c r="F200" t="n">
-        <v>-0.04033140969441879</v>
+        <v>-0.00733615710781492</v>
       </c>
       <c r="G200" t="n">
         <v>0.01986737578273203</v>
@@ -5006,16 +4994,16 @@
         <v>139608</v>
       </c>
       <c r="C201" t="n">
-        <v>-0.00931658587155264</v>
+        <v>-0.03877931520623271</v>
       </c>
       <c r="D201" t="n">
-        <v>-0.01889603292737985</v>
+        <v>-0.04454035405847372</v>
       </c>
       <c r="E201" t="n">
-        <v>0.01902789265603794</v>
+        <v>-0.01358357311908464</v>
       </c>
       <c r="F201" t="n">
-        <v>-0.04368088416878543</v>
+        <v>0.04454035405847372</v>
       </c>
       <c r="G201" t="n">
         <v>0.001814089800157331</v>
@@ -5029,16 +5017,16 @@
         <v>139609</v>
       </c>
       <c r="C202" t="n">
-        <v>-0.04513509152333358</v>
+        <v>-0.03701793054333845</v>
       </c>
       <c r="D202" t="n">
-        <v>-0.04642472353648834</v>
+        <v>-0.005751909695986494</v>
       </c>
       <c r="E202" t="n">
-        <v>-0.008066565249077607</v>
+        <v>-0.007362264764726938</v>
       </c>
       <c r="F202" t="n">
-        <v>0.01727415195317232</v>
+        <v>0.005751909695986494</v>
       </c>
       <c r="G202" t="n">
         <v>0.0367538771629555</v>
@@ -5052,16 +5040,16 @@
         <v>139610</v>
       </c>
       <c r="C203" t="n">
-        <v>-0.05482889697731094</v>
+        <v>0.03132050862943898</v>
       </c>
       <c r="D203" t="n">
-        <v>-0.003485804263273469</v>
+        <v>-0.01728853213614355</v>
       </c>
       <c r="E203" t="n">
-        <v>0.02743632110938261</v>
+        <v>-0.02627643920954429</v>
       </c>
       <c r="F203" t="n">
-        <v>-0.05492277736539156</v>
+        <v>0.01728853213614355</v>
       </c>
       <c r="G203" t="n">
         <v>0.01591405216454674</v>
@@ -5075,16 +5063,16 @@
         <v>139611</v>
       </c>
       <c r="C204" t="n">
-        <v>0.02601588841172545</v>
+        <v>-0.01627949788069755</v>
       </c>
       <c r="D204" t="n">
-        <v>-0.008216300504439729</v>
+        <v>-0.007883060746729009</v>
       </c>
       <c r="E204" t="n">
-        <v>0.01030483998281306</v>
+        <v>-0.008622321765061794</v>
       </c>
       <c r="F204" t="n">
-        <v>-0.0341626092214604</v>
+        <v>0.007883060746729009</v>
       </c>
       <c r="G204" t="n">
         <v>-0.004348345899425999</v>
@@ -5098,16 +5086,16 @@
         <v>139612</v>
       </c>
       <c r="C205" t="n">
-        <v>-0.02852712630957647</v>
+        <v>-0.003796696638849253</v>
       </c>
       <c r="D205" t="n">
-        <v>-0.005520965608475464</v>
+        <v>0.001957170287516435</v>
       </c>
       <c r="E205" t="n">
-        <v>0.009590167569766233</v>
+        <v>-0.005393541037927413</v>
       </c>
       <c r="F205" t="n">
-        <v>-0.01860539192701141</v>
+        <v>-0.001957170287516435</v>
       </c>
       <c r="G205" t="n">
         <v>0.03269996769870698</v>
@@ -5121,16 +5109,16 @@
         <v>139701</v>
       </c>
       <c r="C206" t="n">
-        <v>-0.008335526295000886</v>
+        <v>0.04855427668539295</v>
       </c>
       <c r="D206" t="n">
-        <v>0.007575471903347238</v>
+        <v>0.01023031880622792</v>
       </c>
       <c r="E206" t="n">
-        <v>0.03874520139775932</v>
+        <v>0.007643807245015028</v>
       </c>
       <c r="F206" t="n">
-        <v>-0.05859245998072317</v>
+        <v>-0.01023031880622792</v>
       </c>
       <c r="G206" t="n">
         <v>-0.01109774306259359</v>
@@ -5144,16 +5132,16 @@
         <v>139702</v>
       </c>
       <c r="C207" t="n">
-        <v>0.03466456415869968</v>
+        <v>-0.0079140395605449</v>
       </c>
       <c r="D207" t="n">
-        <v>0.01171823428400047</v>
+        <v>0.006478027472930359</v>
       </c>
       <c r="E207" t="n">
-        <v>0.009825110246634204</v>
+        <v>0.02899281425707174</v>
       </c>
       <c r="F207" t="n">
-        <v>-0.02791000751421882</v>
+        <v>-0.006478027472930359</v>
       </c>
       <c r="G207" t="n">
         <v>0.01672589837416229</v>
@@ -5167,16 +5155,16 @@
         <v>139703</v>
       </c>
       <c r="C208" t="n">
-        <v>-0.03122564877666948</v>
+        <v>0.009836636061498663</v>
       </c>
       <c r="D208" t="n">
-        <v>0.01002225945538383</v>
+        <v>-0.006536789043623146</v>
       </c>
       <c r="E208" t="n">
-        <v>0.00963731352662861</v>
+        <v>-0.01024696188576605</v>
       </c>
       <c r="F208" t="n">
-        <v>-0.01521114801983964</v>
+        <v>0.006536789043623146</v>
       </c>
       <c r="G208" t="n">
         <v>0.01604611758547051</v>
@@ -5190,16 +5178,16 @@
         <v>139704</v>
       </c>
       <c r="C209" t="n">
-        <v>-0.01941336035948629</v>
+        <v>-0.1040783821789599</v>
       </c>
       <c r="D209" t="n">
-        <v>-0.003623851206617592</v>
+        <v>0.06549050539328238</v>
       </c>
       <c r="E209" t="n">
-        <v>0.004412192616364295</v>
+        <v>0.03185732373551112</v>
       </c>
       <c r="F209" t="n">
-        <v>-0.03765545350320416</v>
+        <v>-0.06549050539328238</v>
       </c>
       <c r="G209" t="n">
         <v>0.07665715353229828</v>
@@ -5213,16 +5201,16 @@
         <v>139705</v>
       </c>
       <c r="C210" t="n">
-        <v>-0.1491870770911635</v>
+        <v>0.1603981470771453</v>
       </c>
       <c r="D210" t="n">
-        <v>0.1425709649865095</v>
+        <v>-0.148005448764372</v>
       </c>
       <c r="E210" t="n">
-        <v>0.01802164341856077</v>
+        <v>-0.0490008845625246</v>
       </c>
       <c r="F210" t="n">
-        <v>-0.1425709649865095</v>
+        <v>0.148005448764372</v>
       </c>
       <c r="G210" t="n">
         <v>-0.1279336335756558</v>
@@ -5236,16 +5224,16 @@
         <v>139706</v>
       </c>
       <c r="C211" t="n">
-        <v>0.1132939457810149</v>
+        <v>-0.08652590285067761</v>
       </c>
       <c r="D211" t="n">
-        <v>-0.15166482536019</v>
+        <v>0.05806756678269041</v>
       </c>
       <c r="E211" t="n">
-        <v>-0.004143752236041964</v>
+        <v>0.0007478865114629082</v>
       </c>
       <c r="F211" t="n">
-        <v>0.01319117508904849</v>
+        <v>-0.05806756678269041</v>
       </c>
       <c r="G211" t="n">
         <v>0.03691427823923027</v>
@@ -5259,16 +5247,16 @@
         <v>139707</v>
       </c>
       <c r="C212" t="n">
-        <v>-0.1031962854611291</v>
+        <v>0.03932798042624419</v>
       </c>
       <c r="D212" t="n">
-        <v>0.06961394495286868</v>
+        <v>0.001731137487468823</v>
       </c>
       <c r="E212" t="n">
-        <v>0.03952943549182156</v>
+        <v>0.006670744311163872</v>
       </c>
       <c r="F212" t="n">
-        <v>-0.1077342403634868</v>
+        <v>-0.001731137487468823</v>
       </c>
       <c r="G212" t="n">
         <v>-0.01587616363102818</v>
@@ -5282,16 +5270,16 @@
         <v>139708</v>
       </c>
       <c r="C213" t="n">
-        <v>0.01242370991973331</v>
+        <v>0.03804745213976903</v>
       </c>
       <c r="D213" t="n">
-        <v>0.001991264429556619</v>
+        <v>0.008826300086935336</v>
       </c>
       <c r="E213" t="n">
-        <v>0.02319519400200162</v>
+        <v>0.01426808849757195</v>
       </c>
       <c r="F213" t="n">
-        <v>-0.05157858382391901</v>
+        <v>-0.008826300086935336</v>
       </c>
       <c r="G213" t="n">
         <v>0.003623848146804477</v>
@@ -5305,16 +5293,16 @@
         <v>139709</v>
       </c>
       <c r="C214" t="n">
-        <v>0.04865291620749101</v>
+        <v>0.02527822760248843</v>
       </c>
       <c r="D214" t="n">
-        <v>0.008635545598274286</v>
+        <v>-0.00219286646547677</v>
       </c>
       <c r="E214" t="n">
-        <v>0.1042830623272971</v>
+        <v>-0.004700765132512816</v>
       </c>
       <c r="F214" t="n">
-        <v>-0.1195765553512597</v>
+        <v>0.00219286646547677</v>
       </c>
       <c r="G214" t="n">
         <v>-0.006696751011540103</v>
@@ -5328,16 +5316,16 @@
         <v>139710</v>
       </c>
       <c r="C215" t="n">
-        <v>-0.008252584376434243</v>
+        <v>0.06677286533365442</v>
       </c>
       <c r="D215" t="n">
-        <v>-0.0009503848189738318</v>
+        <v>0.01076730723481618</v>
       </c>
       <c r="E215" t="n">
-        <v>0.009363700152129228</v>
+        <v>0.01463505218659056</v>
       </c>
       <c r="F215" t="n">
-        <v>-0.03560146212819494</v>
+        <v>-0.01076730723481618</v>
       </c>
       <c r="G215" t="n">
         <v>-0.001686105853822506</v>
@@ -5351,16 +5339,16 @@
         <v>139711</v>
       </c>
       <c r="C216" t="n">
-        <v>0.05121485234340125</v>
+        <v>0.0153332281056147</v>
       </c>
       <c r="D216" t="n">
-        <v>0.01680682628542081</v>
+        <v>0.05173935691738929</v>
       </c>
       <c r="E216" t="n">
-        <v>0.0607298164200675</v>
+        <v>0.0383843345988127</v>
       </c>
       <c r="F216" t="n">
-        <v>-0.07145719807162212</v>
+        <v>-0.05173935691738929</v>
       </c>
       <c r="G216" t="n">
         <v>0.02442479618356719</v>
@@ -5374,16 +5362,16 @@
         <v>139712</v>
       </c>
       <c r="C217" t="n">
-        <v>-0.006631870565814703</v>
+        <v>0.08245533360703663</v>
       </c>
       <c r="D217" t="n">
-        <v>0.04327134605196023</v>
+        <v>0.0236499018347272</v>
       </c>
       <c r="E217" t="n">
-        <v>0.05360744657779506</v>
+        <v>0.04400211818049876</v>
       </c>
       <c r="F217" t="n">
-        <v>-0.08359190238006936</v>
+        <v>-0.0236499018347272</v>
       </c>
       <c r="G217" t="n">
         <v>-0.006287128029605404</v>
@@ -5397,16 +5385,16 @@
         <v>139801</v>
       </c>
       <c r="C218" t="n">
-        <v>0.0465687615398433</v>
+        <v>0.08375741183477463</v>
       </c>
       <c r="D218" t="n">
-        <v>0.02720739916551773</v>
+        <v>0.01622633038737578</v>
       </c>
       <c r="E218" t="n">
-        <v>0.03459311407513457</v>
+        <v>0.0009919544123510038</v>
       </c>
       <c r="F218" t="n">
-        <v>-0.05820673433139067</v>
+        <v>-0.01622633038737578</v>
       </c>
       <c r="G218" t="n">
         <v>-0.01785010039710111</v>
@@ -5420,16 +5408,16 @@
         <v>139802</v>
       </c>
       <c r="C219" t="n">
-        <v>0.007581256366366806</v>
+        <v>0.08813960602098653</v>
       </c>
       <c r="D219" t="n">
-        <v>0.01863758118688436</v>
+        <v>-0.03651145362686628</v>
       </c>
       <c r="E219" t="n">
-        <v>0.05857404543764108</v>
+        <v>-0.009428154841557179</v>
       </c>
       <c r="F219" t="n">
-        <v>-0.1935643650882983</v>
+        <v>0.03651145362686628</v>
       </c>
       <c r="G219" t="n">
         <v>-0.01226153192463786</v>
@@ -5443,16 +5431,16 @@
         <v>139803</v>
       </c>
       <c r="C220" t="n">
-        <v>0.01945219090496654</v>
+        <v>0.02958902801185206</v>
       </c>
       <c r="D220" t="n">
-        <v>-0.03125118805068988</v>
+        <v>0.03737241604915113</v>
       </c>
       <c r="E220" t="n">
-        <v>0.02289081112103292</v>
+        <v>0.01756120446764746</v>
       </c>
       <c r="F220" t="n">
-        <v>-0.09577852084965746</v>
+        <v>-0.03737241604915113</v>
       </c>
       <c r="G220" t="n">
         <v>0.02477340491405684</v>
@@ -5466,16 +5454,16 @@
         <v>139804</v>
       </c>
       <c r="C221" t="n">
-        <v>-0.01509647063856943</v>
+        <v>0.06067892015004703</v>
       </c>
       <c r="D221" t="n">
-        <v>0.04065061180735735</v>
+        <v>-0.06101851628316751</v>
       </c>
       <c r="E221" t="n">
-        <v>0.08236020276376951</v>
+        <v>-0.0133139282914978</v>
       </c>
       <c r="F221" t="n">
-        <v>-0.1501429427001865</v>
+        <v>0.06101851628316751</v>
       </c>
       <c r="G221" t="n">
         <v>0.0231690318445259</v>
@@ -5489,16 +5477,16 @@
         <v>139805</v>
       </c>
       <c r="C222" t="n">
-        <v>0.02661781408035641</v>
+        <v>0.09565895453660316</v>
       </c>
       <c r="D222" t="n">
-        <v>0.07096916338805376</v>
+        <v>-0.01724004449114405</v>
       </c>
       <c r="E222" t="n">
-        <v>0.0325830374531963</v>
+        <v>-0.02562066803126584</v>
       </c>
       <c r="F222" t="n">
-        <v>-0.07096916338805376</v>
+        <v>0.01724004449114405</v>
       </c>
       <c r="G222" t="n">
         <v>-0.03144334094613671</v>
@@ -5512,16 +5500,16 @@
         <v>139806</v>
       </c>
       <c r="C223" t="n">
-        <v>0.04304856873858989</v>
+        <v>-0.03083168055349826</v>
       </c>
       <c r="D223" t="n">
-        <v>-0.009616740860200423</v>
+        <v>-0.02183789333897634</v>
       </c>
       <c r="E223" t="n">
-        <v>0.04100489239860344</v>
+        <v>0.01249201645596807</v>
       </c>
       <c r="F223" t="n">
-        <v>-0.1008585355489252</v>
+        <v>0.02183789333897634</v>
       </c>
       <c r="G223" t="n">
         <v>-0.01206496735468128</v>
@@ -5535,16 +5523,16 @@
         <v>139807</v>
       </c>
       <c r="C224" t="n">
-        <v>-0.05022463187894052</v>
+        <v>0.07237485300656385</v>
       </c>
       <c r="D224" t="n">
-        <v>-0.02493336305150755</v>
+        <v>0.04411262589422346</v>
       </c>
       <c r="E224" t="n">
-        <v>0.05003501289922801</v>
+        <v>0.006995239359393085</v>
       </c>
       <c r="F224" t="n">
-        <v>-0.04084528644162326</v>
+        <v>-0.04411262589422346</v>
       </c>
       <c r="G224" t="n">
         <v>0.03062708620344699</v>
@@ -5558,16 +5546,16 @@
         <v>139808</v>
       </c>
       <c r="C225" t="n">
-        <v>0.04561668664151788</v>
+        <v>0.1300085759442835</v>
       </c>
       <c r="D225" t="n">
-        <v>0.04518141886396648</v>
+        <v>0.01650360288461544</v>
       </c>
       <c r="E225" t="n">
-        <v>0.02855096672804919</v>
+        <v>0.01498816445182072</v>
       </c>
       <c r="F225" t="n">
-        <v>-0.08764476550259057</v>
+        <v>-0.01650360288461544</v>
       </c>
       <c r="G225" t="n">
         <v>0.01561562949789286</v>
@@ -5581,16 +5569,16 @@
         <v>139809</v>
       </c>
       <c r="C226" t="n">
-        <v>0.09416350204284392</v>
+        <v>0.007956522033923163</v>
       </c>
       <c r="D226" t="n">
-        <v>0.0226113857577756</v>
+        <v>-0.06798035326345858</v>
       </c>
       <c r="E226" t="n">
-        <v>-0.004924490042328089</v>
+        <v>-0.02404987933651975</v>
       </c>
       <c r="F226" t="n">
-        <v>-0.04315748486476789</v>
+        <v>0.06798035326345858</v>
       </c>
       <c r="G226" t="n">
         <v>-0.01855039192286151</v>
@@ -5604,16 +5592,16 @@
         <v>139810</v>
       </c>
       <c r="C227" t="n">
-        <v>-0.02510472854670564</v>
+        <v>0.03655741145254701</v>
       </c>
       <c r="D227" t="n">
-        <v>-0.0614711663849119</v>
+        <v>0.04499737772715987</v>
       </c>
       <c r="E227" t="n">
-        <v>0.006236288522019129</v>
+        <v>0.01682977278170159</v>
       </c>
       <c r="F227" t="n">
-        <v>4.760114211360689e-05</v>
+        <v>-0.04499737772715987</v>
       </c>
       <c r="G227" t="n">
         <v>0.01764457635203581</v>
@@ -5627,16 +5615,16 @@
         <v>139811</v>
       </c>
       <c r="C228" t="n">
-        <v>-0.03973551853798299</v>
+        <v>0.03040633020257902</v>
       </c>
       <c r="D228" t="n">
-        <v>0.06243659185471029</v>
+        <v>0.02488321305148117</v>
       </c>
       <c r="E228" t="n">
-        <v>0.07577007540226338</v>
+        <v>-0.01332323265871893</v>
       </c>
       <c r="F228" t="n">
-        <v>-0.1849093684626436</v>
+        <v>-0.02488321305148117</v>
       </c>
       <c r="G228" t="n">
         <v>0.002836383046910085</v>
@@ -5650,16 +5638,16 @@
         <v>139812</v>
       </c>
       <c r="C229" t="n">
-        <v>-0.03697733746272858</v>
+        <v>-0.0180935841814156</v>
       </c>
       <c r="D229" t="n">
-        <v>0.03446805871825581</v>
+        <v>-0.1435592680422049</v>
       </c>
       <c r="E229" t="n">
-        <v>0.03266799574466678</v>
+        <v>-0.06116176482349928</v>
       </c>
       <c r="F229" t="n">
-        <v>-0.1396603044784764</v>
+        <v>0.1435592680422049</v>
       </c>
       <c r="G229" t="n">
         <v>-0.1018276580412488</v>
@@ -5673,16 +5661,16 @@
         <v>139901</v>
       </c>
       <c r="C230" t="n">
-        <v>-0.08454317222872409</v>
+        <v>-0.06871143322616274</v>
       </c>
       <c r="D230" t="n">
-        <v>-0.1221602466921602</v>
+        <v>-0.1731550355859629</v>
       </c>
       <c r="E230" t="n">
-        <v>-0.02763805550644399</v>
+        <v>-0.06206139184823017</v>
       </c>
       <c r="F230" t="n">
-        <v>0.04771508105917993</v>
+        <v>0.1731550355859629</v>
       </c>
       <c r="G230" t="n">
         <v>-0.1197149698919713</v>
@@ -5696,16 +5684,16 @@
         <v>139902</v>
       </c>
       <c r="C231" t="n">
-        <v>-0.1722051134455528</v>
+        <v>0.005116348811967431</v>
       </c>
       <c r="D231" t="n">
-        <v>-0.1472675724473455</v>
+        <v>-0.0426495673788779</v>
       </c>
       <c r="E231" t="n">
-        <v>0.01950093525910152</v>
+        <v>-0.003484744856455613</v>
       </c>
       <c r="F231" t="n">
-        <v>0.00779087045564214</v>
+        <v>0.0426495673788779</v>
       </c>
       <c r="G231" t="n">
         <v>-0.03330306963158228</v>
@@ -5719,16 +5707,16 @@
         <v>139903</v>
       </c>
       <c r="C232" t="n">
-        <v>-0.03712053386485911</v>
+        <v>-0.09129172231206767</v>
       </c>
       <c r="D232" t="n">
-        <v>-0.03840701797550211</v>
+        <v>-0.1436572212228575</v>
       </c>
       <c r="E232" t="n">
-        <v>0.02275748732045219</v>
+        <v>-0.04592437349491363</v>
       </c>
       <c r="F232" t="n">
-        <v>-0.04630718907147685</v>
+        <v>0.1436572212228575</v>
       </c>
       <c r="G232" t="n">
         <v>-0.05890173652979491</v>
@@ -5742,16 +5730,16 @@
         <v>139904</v>
       </c>
       <c r="C233" t="n">
-        <v>-0.1986349551143517</v>
+        <v>0.04356897955687567</v>
       </c>
       <c r="D233" t="n">
-        <v>-0.128879802619364</v>
+        <v>0.05288311470745721</v>
       </c>
       <c r="E233" t="n">
-        <v>0.0776735257519631</v>
+        <v>0.05137253653906163</v>
       </c>
       <c r="F233" t="n">
-        <v>-0.1353808690241111</v>
+        <v>-0.05288311470745721</v>
       </c>
       <c r="G233" t="n">
         <v>0.001026120398176483</v>
@@ -5765,16 +5753,16 @@
         <v>139905</v>
       </c>
       <c r="C234" t="n">
-        <v>-0.03488569143806586</v>
+        <v>0.0193638278823004</v>
       </c>
       <c r="D234" t="n">
-        <v>0.1496673548524987</v>
+        <v>-0.007948406015766268</v>
       </c>
       <c r="E234" t="n">
-        <v>0.07526917889759727</v>
+        <v>0.006400978046170153</v>
       </c>
       <c r="F234" t="n">
-        <v>-0.1496673548524987</v>
+        <v>0.007948406015766268</v>
       </c>
       <c r="G234" t="n">
         <v>-0.03856911615097677</v>
@@ -5788,16 +5776,16 @@
         <v>139906</v>
       </c>
       <c r="C235" t="n">
-        <v>-0.002110210107163233</v>
+        <v>0.03943662728299768</v>
       </c>
       <c r="D235" t="n">
-        <v>-0.02363475071002631</v>
+        <v>0.01180890152653413</v>
       </c>
       <c r="E235" t="n">
-        <v>0.02607189772094282</v>
+        <v>0.0009337460623223687</v>
       </c>
       <c r="F235" t="n">
-        <v>-0.05993660712338621</v>
+        <v>-0.01180890152653413</v>
       </c>
       <c r="G235" t="n">
         <v>-0.0352414727099515</v>
@@ -5811,16 +5799,16 @@
         <v>139907</v>
       </c>
       <c r="C236" t="n">
-        <v>-0.001547563674750882</v>
+        <v>0.02947741244929892</v>
       </c>
       <c r="D236" t="n">
-        <v>0.01713137099803574</v>
+        <v>-0.02649171838759672</v>
       </c>
       <c r="E236" t="n">
-        <v>0.02352961673933392</v>
+        <v>0.008472683483210765</v>
       </c>
       <c r="F236" t="n">
-        <v>-0.09359386646933875</v>
+        <v>0.02649171838759672</v>
       </c>
       <c r="G236" t="n">
         <v>-0.008024224669657402</v>
@@ -5834,16 +5822,16 @@
         <v>139908</v>
       </c>
       <c r="C237" t="n">
-        <v>0.00311416990785882</v>
+        <v>0.08772253210997649</v>
       </c>
       <c r="D237" t="n">
-        <v>-0.02316961864534684</v>
+        <v>-0.02887749013766391</v>
       </c>
       <c r="E237" t="n">
-        <v>0.05158739362783818</v>
+        <v>-0.03195623950496979</v>
       </c>
       <c r="F237" t="n">
-        <v>-0.07118221662133914</v>
+        <v>0.02887749013766391</v>
       </c>
       <c r="G237" t="n">
         <v>-0.04814515683866144</v>
@@ -5857,16 +5845,16 @@
         <v>139909</v>
       </c>
       <c r="C238" t="n">
-        <v>0.02065884209593328</v>
+        <v>0.1988069152112032</v>
       </c>
       <c r="D238" t="n">
-        <v>-0.01758801008488939</v>
+        <v>0.07228112598226452</v>
       </c>
       <c r="E238" t="n">
-        <v>0.002040503701315116</v>
+        <v>0.06260226948190148</v>
       </c>
       <c r="F238" t="n">
-        <v>-0.1006575271172435</v>
+        <v>-0.07228112598226452</v>
       </c>
       <c r="G238" t="n">
         <v>-0.08729560579386643</v>
@@ -5880,16 +5868,16 @@
         <v>139910</v>
       </c>
       <c r="C239" t="n">
-        <v>0.1173627863156834</v>
+        <v>0.04232024105419028</v>
       </c>
       <c r="D239" t="n">
-        <v>0.08064156252708209</v>
+        <v>-0.03538098807452078</v>
       </c>
       <c r="E239" t="n">
-        <v>0.1196538504949441</v>
+        <v>-0.008426754235873565</v>
       </c>
       <c r="F239" t="n">
-        <v>-0.1855522649711229</v>
+        <v>0.03538098807452078</v>
       </c>
       <c r="G239" t="n">
         <v>-0.04200020155068458</v>
@@ -5903,16 +5891,16 @@
         <v>139911</v>
       </c>
       <c r="C240" t="n">
-        <v>0.006461816713353414</v>
+        <v>-0.02171258395484106</v>
       </c>
       <c r="D240" t="n">
-        <v>-0.03159102280103196</v>
+        <v>-0.02897941693225106</v>
       </c>
       <c r="E240" t="n">
-        <v>0.04652798591358982</v>
+        <v>-0.002238046010743575</v>
       </c>
       <c r="F240" t="n">
-        <v>-0.05353839874749909</v>
+        <v>0.02897941693225106</v>
       </c>
       <c r="G240" t="n">
         <v>0.008421542158414036</v>
@@ -5926,16 +5914,16 @@
         <v>139912</v>
       </c>
       <c r="C241" t="n">
-        <v>-0.03409725137334615</v>
+        <v>0.04018893232310169</v>
       </c>
       <c r="D241" t="n">
-        <v>-0.02277369539644787</v>
+        <v>0.0244612472722139</v>
       </c>
       <c r="E241" t="n">
-        <v>0.01243669921090592</v>
+        <v>0.002773583537777034</v>
       </c>
       <c r="F241" t="n">
-        <v>-0.003412732793174834</v>
+        <v>-0.0244612472722139</v>
       </c>
       <c r="G241" t="n">
         <v>-0.00984658843328249</v>
@@ -5949,16 +5937,16 @@
         <v>140001</v>
       </c>
       <c r="C242" t="n">
-        <v>0.03142110891585617</v>
+        <v>0.002691012517645613</v>
       </c>
       <c r="D242" t="n">
-        <v>0.02563217345070012</v>
+        <v>-0.009443375787747288</v>
       </c>
       <c r="E242" t="n">
-        <v>0.01232819009511798</v>
+        <v>0.00756969264054913</v>
       </c>
       <c r="F242" t="n">
-        <v>-0.02666879446374383</v>
+        <v>0.009443375787747288</v>
       </c>
       <c r="G242" t="n">
         <v>0.003108277178246396</v>
@@ -5972,16 +5960,16 @@
         <v>140002</v>
       </c>
       <c r="C243" t="n">
-        <v>-0.02277770588931806</v>
+        <v>-0.07896893249987556</v>
       </c>
       <c r="D243" t="n">
-        <v>-0.005597068046260159</v>
+        <v>-0.09439226937115407</v>
       </c>
       <c r="E243" t="n">
-        <v>0.02178762186263375</v>
+        <v>-0.04197266046537906</v>
       </c>
       <c r="F243" t="n">
-        <v>-0.03463973085512388</v>
+        <v>0.09439226937115407</v>
       </c>
       <c r="G243" t="n">
         <v>-0.005608634069062306</v>
@@ -5995,16 +5983,16 @@
         <v>140003</v>
       </c>
       <c r="C244" t="n">
-        <v>-0.1116768200860403</v>
+        <v>-0.02027142187385883</v>
       </c>
       <c r="D244" t="n">
-        <v>-0.08178399074237808</v>
+        <v>-0.02966401550631028</v>
       </c>
       <c r="E244" t="n">
-        <v>-0.01912337183522297</v>
+        <v>-0.01309354608159828</v>
       </c>
       <c r="F244" t="n">
-        <v>0.02903380827589848</v>
+        <v>0.02966401550631028</v>
       </c>
       <c r="G244" t="n">
         <v>-0.03396344327841083</v>
@@ -6017,18 +6005,10 @@
       <c r="B245" t="n">
         <v>140004</v>
       </c>
-      <c r="C245" t="n">
-        <v>-0.006528352765398468</v>
-      </c>
-      <c r="D245" t="n">
-        <v>-0.02837621085921852</v>
-      </c>
-      <c r="E245" t="n">
-        <v>-0.04636264839213025</v>
-      </c>
-      <c r="F245" t="n">
-        <v>0.03786404737842769</v>
-      </c>
+      <c r="C245" t="inlineStr"/>
+      <c r="D245" t="inlineStr"/>
+      <c r="E245" t="inlineStr"/>
+      <c r="F245" t="inlineStr"/>
       <c r="G245" t="inlineStr"/>
     </row>
   </sheetData>
